--- a/score/country_scores/All.xlsx
+++ b/score/country_scores/All.xlsx
@@ -568,7 +568,7 @@
     <t>Cuba</t>
   </si>
   <si>
-    <t>Curacao</t>
+    <t>Curaçao</t>
   </si>
   <si>
     <t>Djibouti</t>
@@ -1093,13 +1093,13 @@
     <t>Strategy</t>
   </si>
   <si>
-    <t>Financing Incentives</t>
+    <t>Financing incentives</t>
   </si>
   <si>
     <t>Startup Environment</t>
   </si>
   <si>
-    <t>Technology Adoption</t>
+    <t>Technology adoption</t>
   </si>
   <si>
     <t>Data Exchange</t>
@@ -1114,13 +1114,13 @@
     <t>Capabilities</t>
   </si>
   <si>
-    <t>Digital Public Services</t>
+    <t>Digital public services</t>
   </si>
   <si>
     <t>Funding and procurement</t>
   </si>
   <si>
-    <t>Connectivity Technology</t>
+    <t>Connectivity technology</t>
   </si>
   <si>
     <t>Innovation Ecosystem</t>
@@ -1132,16 +1132,16 @@
     <t>Digital Literacy Skills</t>
   </si>
   <si>
-    <t>Digital Wellbeing</t>
+    <t>Digital wellbeing</t>
   </si>
   <si>
-    <t>Usage and ownership</t>
+    <t>Usage and Ownership</t>
   </si>
   <si>
     <t>Cybersecurity</t>
   </si>
   <si>
-    <t>Ethical Standards</t>
+    <t>Ethical standards</t>
   </si>
   <si>
     <t>Ambition</t>
@@ -4799,13 +4799,13 @@
         <v>360</v>
       </c>
       <c r="D165">
-        <v>4.0599070102</v>
+        <v>4.059907010200001</v>
       </c>
       <c r="E165">
         <v>5</v>
       </c>
       <c r="F165">
-        <v>2.255503894555555</v>
+        <v>2.255503894555556</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4839,7 +4839,7 @@
         <v>360</v>
       </c>
       <c r="D167">
-        <v>4.591903799442287</v>
+        <v>4.591903799442286</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -5579,13 +5579,13 @@
         <v>360</v>
       </c>
       <c r="D204">
-        <v>4.128431378233334</v>
+        <v>4.128431378233333</v>
       </c>
       <c r="E204">
         <v>5</v>
       </c>
       <c r="F204">
-        <v>2.293572987907408</v>
+        <v>2.293572987907407</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5599,13 +5599,13 @@
         <v>360</v>
       </c>
       <c r="D205">
-        <v>3.756766447933333</v>
+        <v>3.756766447933334</v>
       </c>
       <c r="E205">
         <v>5</v>
       </c>
       <c r="F205">
-        <v>2.087092471074074</v>
+        <v>2.087092471074075</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5799,13 +5799,13 @@
         <v>360</v>
       </c>
       <c r="D215">
-        <v>3.650145078766667</v>
+        <v>3.650145078766665</v>
       </c>
       <c r="E215">
         <v>5</v>
       </c>
       <c r="F215">
-        <v>2.027858377092593</v>
+        <v>2.027858377092592</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6139,13 +6139,13 @@
         <v>360</v>
       </c>
       <c r="D232">
-        <v>4.2027361403</v>
+        <v>4.202736140299999</v>
       </c>
       <c r="E232">
         <v>5</v>
       </c>
       <c r="F232">
-        <v>2.334853411277778</v>
+        <v>2.334853411277777</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6439,13 +6439,13 @@
         <v>360</v>
       </c>
       <c r="D247">
-        <v>3.624717292677835</v>
+        <v>3.624717292677833</v>
       </c>
       <c r="E247">
         <v>6</v>
       </c>
       <c r="F247">
-        <v>2.416478195118557</v>
+        <v>2.416478195118556</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6499,7 +6499,7 @@
         <v>360</v>
       </c>
       <c r="D250">
-        <v>3.898666666666667</v>
+        <v>3.898666666666666</v>
       </c>
       <c r="E250">
         <v>3</v>
@@ -6885,7 +6885,7 @@
         <v>6</v>
       </c>
       <c r="F269">
-        <v>2.453696513003878</v>
+        <v>2.453696513003877</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7025,7 +7025,7 @@
         <v>5</v>
       </c>
       <c r="F276">
-        <v>2.360726382611111</v>
+        <v>2.360726382611112</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7979,7 +7979,7 @@
         <v>360</v>
       </c>
       <c r="D324">
-        <v>2.863699834666666</v>
+        <v>2.863699834666667</v>
       </c>
       <c r="E324">
         <v>5</v>
@@ -8419,7 +8419,7 @@
         <v>360</v>
       </c>
       <c r="D346">
-        <v>2.592147114933334</v>
+        <v>2.592147114933333</v>
       </c>
       <c r="E346">
         <v>5</v>
@@ -8519,13 +8519,13 @@
         <v>360</v>
       </c>
       <c r="D351">
-        <v>3.55475783713959</v>
+        <v>3.554757837139592</v>
       </c>
       <c r="E351">
         <v>6</v>
       </c>
       <c r="F351">
-        <v>2.36983855809306</v>
+        <v>2.369838558093061</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8739,7 +8739,7 @@
         <v>360</v>
       </c>
       <c r="D362">
-        <v>3.959912160231904</v>
+        <v>3.959912160231903</v>
       </c>
       <c r="E362">
         <v>6</v>
@@ -8939,7 +8939,7 @@
         <v>360</v>
       </c>
       <c r="D372">
-        <v>4.179452142666667</v>
+        <v>4.179452142666666</v>
       </c>
       <c r="E372">
         <v>5</v>
@@ -9019,13 +9019,13 @@
         <v>360</v>
       </c>
       <c r="D376">
-        <v>3.303546116733334</v>
+        <v>3.303546116733333</v>
       </c>
       <c r="E376">
         <v>5</v>
       </c>
       <c r="F376">
-        <v>1.835303398185186</v>
+        <v>1.835303398185185</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -9219,7 +9219,7 @@
         <v>360</v>
       </c>
       <c r="D386">
-        <v>3.73242714146999</v>
+        <v>3.732427141469989</v>
       </c>
       <c r="E386">
         <v>6</v>
@@ -9459,7 +9459,7 @@
         <v>360</v>
       </c>
       <c r="D398">
-        <v>3.357944444444444</v>
+        <v>3.357944444444445</v>
       </c>
       <c r="E398">
         <v>3</v>
@@ -9499,7 +9499,7 @@
         <v>360</v>
       </c>
       <c r="D400">
-        <v>5.095066666666666</v>
+        <v>5.095066666666667</v>
       </c>
       <c r="E400">
         <v>5</v>
@@ -9539,7 +9539,7 @@
         <v>360</v>
       </c>
       <c r="D402">
-        <v>3.276481939787432</v>
+        <v>3.276481939787431</v>
       </c>
       <c r="E402">
         <v>4</v>
@@ -10079,7 +10079,7 @@
         <v>360</v>
       </c>
       <c r="D429">
-        <v>3.684944444444444</v>
+        <v>3.684944444444445</v>
       </c>
       <c r="E429">
         <v>3</v>
@@ -10299,7 +10299,7 @@
         <v>360</v>
       </c>
       <c r="D440">
-        <v>3.614417536366667</v>
+        <v>3.614417536366666</v>
       </c>
       <c r="E440">
         <v>5</v>
@@ -11165,7 +11165,7 @@
         <v>5</v>
       </c>
       <c r="F483">
-        <v>1.280944444444445</v>
+        <v>1.280944444444444</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -11199,7 +11199,7 @@
         <v>361</v>
       </c>
       <c r="D485">
-        <v>3.715300000000001</v>
+        <v>3.7153</v>
       </c>
       <c r="E485">
         <v>5</v>
@@ -11499,13 +11499,13 @@
         <v>361</v>
       </c>
       <c r="D500">
-        <v>3.4382</v>
+        <v>3.438200000000001</v>
       </c>
       <c r="E500">
         <v>5</v>
       </c>
       <c r="F500">
-        <v>1.910111111111111</v>
+        <v>1.910111111111112</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -11779,13 +11779,13 @@
         <v>361</v>
       </c>
       <c r="D514">
-        <v>3.343</v>
+        <v>3.343000000000001</v>
       </c>
       <c r="E514">
         <v>5</v>
       </c>
       <c r="F514">
-        <v>1.857222222222222</v>
+        <v>1.857222222222223</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -11879,13 +11879,13 @@
         <v>361</v>
       </c>
       <c r="D519">
-        <v>4.499146285714286</v>
+        <v>4.499146285714287</v>
       </c>
       <c r="E519">
         <v>7</v>
       </c>
       <c r="F519">
-        <v>3.499336</v>
+        <v>3.499336000000001</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -11899,13 +11899,13 @@
         <v>361</v>
       </c>
       <c r="D520">
-        <v>4.043713055555555</v>
+        <v>4.043713055555556</v>
       </c>
       <c r="E520">
         <v>9</v>
       </c>
       <c r="F520">
-        <v>4.043713055555555</v>
+        <v>4.043713055555556</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -12019,13 +12019,13 @@
         <v>361</v>
       </c>
       <c r="D526">
-        <v>3.184251764285714</v>
+        <v>3.184251764285715</v>
       </c>
       <c r="E526">
         <v>7</v>
       </c>
       <c r="F526">
-        <v>2.476640261111111</v>
+        <v>2.476640261111112</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -12139,13 +12139,13 @@
         <v>361</v>
       </c>
       <c r="D532">
-        <v>3.7671860375</v>
+        <v>3.767186037500001</v>
       </c>
       <c r="E532">
         <v>8</v>
       </c>
       <c r="F532">
-        <v>3.348609811111111</v>
+        <v>3.348609811111112</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -12519,7 +12519,7 @@
         <v>361</v>
       </c>
       <c r="D551">
-        <v>2.7308</v>
+        <v>2.730799999999999</v>
       </c>
       <c r="E551">
         <v>5</v>
@@ -12545,7 +12545,7 @@
         <v>4</v>
       </c>
       <c r="F552">
-        <v>1.214555555555556</v>
+        <v>1.214555555555555</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -12719,13 +12719,13 @@
         <v>361</v>
       </c>
       <c r="D561">
-        <v>4.1610949375</v>
+        <v>4.161094937500001</v>
       </c>
       <c r="E561">
         <v>8</v>
       </c>
       <c r="F561">
-        <v>3.698751055555555</v>
+        <v>3.698751055555556</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -12805,7 +12805,7 @@
         <v>4</v>
       </c>
       <c r="F565">
-        <v>0.8857333333333334</v>
+        <v>0.8857333333333333</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -12985,7 +12985,7 @@
         <v>5</v>
       </c>
       <c r="F574">
-        <v>1.118333333333333</v>
+        <v>1.118333333333334</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -13159,7 +13159,7 @@
         <v>361</v>
       </c>
       <c r="D583">
-        <v>3.462699999999999</v>
+        <v>3.4627</v>
       </c>
       <c r="E583">
         <v>5</v>
@@ -13205,7 +13205,7 @@
         <v>4</v>
       </c>
       <c r="F585">
-        <v>1.301955555555556</v>
+        <v>1.301955555555555</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -13319,13 +13319,13 @@
         <v>361</v>
       </c>
       <c r="D591">
-        <v>3.618753833333333</v>
+        <v>3.618753833333334</v>
       </c>
       <c r="E591">
         <v>9</v>
       </c>
       <c r="F591">
-        <v>3.618753833333333</v>
+        <v>3.618753833333334</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -13719,13 +13719,13 @@
         <v>361</v>
       </c>
       <c r="D611">
-        <v>4.6664300625</v>
+        <v>4.666430062500001</v>
       </c>
       <c r="E611">
         <v>8</v>
       </c>
       <c r="F611">
-        <v>4.147937833333333</v>
+        <v>4.147937833333334</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -13785,7 +13785,7 @@
         <v>5</v>
       </c>
       <c r="F614">
-        <v>1.216055555555555</v>
+        <v>1.216055555555556</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -13979,7 +13979,7 @@
         <v>361</v>
       </c>
       <c r="D624">
-        <v>3.767788888888889</v>
+        <v>3.767788888888888</v>
       </c>
       <c r="E624">
         <v>8</v>
@@ -14185,7 +14185,7 @@
         <v>4</v>
       </c>
       <c r="F634">
-        <v>0.7698888888888887</v>
+        <v>0.7698888888888888</v>
       </c>
     </row>
     <row r="635" spans="1:6">
@@ -18779,7 +18779,7 @@
         <v>363</v>
       </c>
       <c r="D864">
-        <v>4.95</v>
+        <v>4.949999999999999</v>
       </c>
       <c r="E864">
         <v>4</v>
@@ -20379,7 +20379,7 @@
         <v>364</v>
       </c>
       <c r="D944">
-        <v>2.014285714285714</v>
+        <v>2.014285714285715</v>
       </c>
       <c r="E944">
         <v>7</v>
@@ -20505,7 +20505,7 @@
         <v>7</v>
       </c>
       <c r="F950">
-        <v>3.631250000000001</v>
+        <v>3.63125</v>
       </c>
     </row>
     <row r="951" spans="1:6">
@@ -20559,13 +20559,13 @@
         <v>364</v>
       </c>
       <c r="D953">
-        <v>5.2196875</v>
+        <v>5.219687499999999</v>
       </c>
       <c r="E953">
         <v>8</v>
       </c>
       <c r="F953">
-        <v>5.2196875</v>
+        <v>5.219687499999999</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -20759,13 +20759,13 @@
         <v>364</v>
       </c>
       <c r="D963">
-        <v>5.4408125</v>
+        <v>5.440812500000001</v>
       </c>
       <c r="E963">
         <v>8</v>
       </c>
       <c r="F963">
-        <v>5.4408125</v>
+        <v>5.440812500000001</v>
       </c>
     </row>
     <row r="964" spans="1:6">
@@ -20919,7 +20919,7 @@
         <v>364</v>
       </c>
       <c r="D971">
-        <v>3.328571428571429</v>
+        <v>3.328571428571428</v>
       </c>
       <c r="E971">
         <v>7</v>
@@ -20959,7 +20959,7 @@
         <v>364</v>
       </c>
       <c r="D973">
-        <v>4.435714285714286</v>
+        <v>4.435714285714285</v>
       </c>
       <c r="E973">
         <v>7</v>
@@ -21019,13 +21019,13 @@
         <v>364</v>
       </c>
       <c r="D976">
-        <v>5.73275</v>
+        <v>5.732749999999999</v>
       </c>
       <c r="E976">
         <v>8</v>
       </c>
       <c r="F976">
-        <v>5.73275</v>
+        <v>5.732749999999999</v>
       </c>
     </row>
     <row r="977" spans="1:6">
@@ -21085,7 +21085,7 @@
         <v>7</v>
       </c>
       <c r="F979">
-        <v>3.2625</v>
+        <v>3.262500000000001</v>
       </c>
     </row>
     <row r="980" spans="1:6">
@@ -21099,7 +21099,7 @@
         <v>364</v>
       </c>
       <c r="D980">
-        <v>3.585714285714286</v>
+        <v>3.585714285714285</v>
       </c>
       <c r="E980">
         <v>7</v>
@@ -21139,7 +21139,7 @@
         <v>364</v>
       </c>
       <c r="D982">
-        <v>1.828571428571429</v>
+        <v>1.828571428571428</v>
       </c>
       <c r="E982">
         <v>7</v>
@@ -21179,13 +21179,13 @@
         <v>364</v>
       </c>
       <c r="D984">
-        <v>5.367625</v>
+        <v>5.367624999999999</v>
       </c>
       <c r="E984">
         <v>8</v>
       </c>
       <c r="F984">
-        <v>5.367625</v>
+        <v>5.367624999999999</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -21239,13 +21239,13 @@
         <v>364</v>
       </c>
       <c r="D987">
-        <v>4.328571428571428</v>
+        <v>4.328571428571429</v>
       </c>
       <c r="E987">
         <v>7</v>
       </c>
       <c r="F987">
-        <v>3.7875</v>
+        <v>3.787500000000001</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -21339,7 +21339,7 @@
         <v>364</v>
       </c>
       <c r="D992">
-        <v>2.935714285714286</v>
+        <v>2.935714285714285</v>
       </c>
       <c r="E992">
         <v>7</v>
@@ -21399,7 +21399,7 @@
         <v>364</v>
       </c>
       <c r="D995">
-        <v>3.735714285714285</v>
+        <v>3.735714285714286</v>
       </c>
       <c r="E995">
         <v>7</v>
@@ -21479,13 +21479,13 @@
         <v>364</v>
       </c>
       <c r="D999">
-        <v>5.007142857142857</v>
+        <v>5.007142857142858</v>
       </c>
       <c r="E999">
         <v>7</v>
       </c>
       <c r="F999">
-        <v>4.38125</v>
+        <v>4.381250000000001</v>
       </c>
     </row>
     <row r="1000" spans="1:6">
@@ -21665,7 +21665,7 @@
         <v>7</v>
       </c>
       <c r="F1008">
-        <v>4.45625</v>
+        <v>4.456250000000001</v>
       </c>
     </row>
     <row r="1009" spans="1:6">
@@ -21719,13 +21719,13 @@
         <v>364</v>
       </c>
       <c r="D1011">
-        <v>4.621428571428572</v>
+        <v>4.621428571428571</v>
       </c>
       <c r="E1011">
         <v>7</v>
       </c>
       <c r="F1011">
-        <v>4.04375</v>
+        <v>4.043749999999999</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -21779,7 +21779,7 @@
         <v>364</v>
       </c>
       <c r="D1014">
-        <v>3.721428571428572</v>
+        <v>3.721428571428571</v>
       </c>
       <c r="E1014">
         <v>7</v>
@@ -22279,7 +22279,7 @@
         <v>364</v>
       </c>
       <c r="D1039">
-        <v>2.185714285714286</v>
+        <v>2.185714285714285</v>
       </c>
       <c r="E1039">
         <v>7</v>
@@ -22619,7 +22619,7 @@
         <v>364</v>
       </c>
       <c r="D1056">
-        <v>5.278571428571429</v>
+        <v>5.278571428571428</v>
       </c>
       <c r="E1056">
         <v>7</v>
@@ -22779,13 +22779,13 @@
         <v>364</v>
       </c>
       <c r="D1064">
-        <v>4.264285714285714</v>
+        <v>4.264285714285713</v>
       </c>
       <c r="E1064">
         <v>7</v>
       </c>
       <c r="F1064">
-        <v>3.73125</v>
+        <v>3.731249999999999</v>
       </c>
     </row>
     <row r="1065" spans="1:6">
@@ -22965,7 +22965,7 @@
         <v>7</v>
       </c>
       <c r="F1073">
-        <v>3.9625</v>
+        <v>3.962499999999999</v>
       </c>
     </row>
     <row r="1074" spans="1:6">
@@ -23005,7 +23005,7 @@
         <v>7</v>
       </c>
       <c r="F1075">
-        <v>2.81875</v>
+        <v>2.818750000000001</v>
       </c>
     </row>
     <row r="1076" spans="1:6">
@@ -23159,13 +23159,13 @@
         <v>364</v>
       </c>
       <c r="D1083">
-        <v>5.128571428571428</v>
+        <v>5.128571428571429</v>
       </c>
       <c r="E1083">
         <v>7</v>
       </c>
       <c r="F1083">
-        <v>4.4875</v>
+        <v>4.487500000000001</v>
       </c>
     </row>
     <row r="1084" spans="1:6">
@@ -23179,13 +23179,13 @@
         <v>364</v>
       </c>
       <c r="D1084">
-        <v>4.335714285714286</v>
+        <v>4.335714285714285</v>
       </c>
       <c r="E1084">
         <v>7</v>
       </c>
       <c r="F1084">
-        <v>3.793750000000001</v>
+        <v>3.79375</v>
       </c>
     </row>
     <row r="1085" spans="1:6">
@@ -23199,7 +23199,7 @@
         <v>364</v>
       </c>
       <c r="D1085">
-        <v>2.492857142857143</v>
+        <v>2.492857142857144</v>
       </c>
       <c r="E1085">
         <v>7</v>
@@ -23479,7 +23479,7 @@
         <v>364</v>
       </c>
       <c r="D1099">
-        <v>3.314285714285714</v>
+        <v>3.314285714285715</v>
       </c>
       <c r="E1099">
         <v>7</v>
@@ -23499,7 +23499,7 @@
         <v>364</v>
       </c>
       <c r="D1100">
-        <v>2.185714285714286</v>
+        <v>2.185714285714285</v>
       </c>
       <c r="E1100">
         <v>7</v>
@@ -23525,7 +23525,7 @@
         <v>7</v>
       </c>
       <c r="F1101">
-        <v>3.225</v>
+        <v>3.225000000000001</v>
       </c>
     </row>
     <row r="1102" spans="1:6">
@@ -31979,13 +31979,13 @@
         <v>368</v>
       </c>
       <c r="D1524">
-        <v>3.672368951150604</v>
+        <v>3.672368951150603</v>
       </c>
       <c r="E1524">
         <v>23</v>
       </c>
       <c r="F1524">
-        <v>3.672368951150604</v>
+        <v>3.672368951150603</v>
       </c>
     </row>
     <row r="1525" spans="1:6">
@@ -31999,13 +31999,13 @@
         <v>368</v>
       </c>
       <c r="D1525">
-        <v>3.259050328297081</v>
+        <v>3.259050328297082</v>
       </c>
       <c r="E1525">
         <v>21</v>
       </c>
       <c r="F1525">
-        <v>2.975654647575596</v>
+        <v>2.975654647575597</v>
       </c>
     </row>
     <row r="1526" spans="1:6">
@@ -32085,7 +32085,7 @@
         <v>6</v>
       </c>
       <c r="F1529">
-        <v>0.3219505309015141</v>
+        <v>0.3219505309015142</v>
       </c>
     </row>
     <row r="1530" spans="1:6">
@@ -32199,13 +32199,13 @@
         <v>368</v>
       </c>
       <c r="D1535">
-        <v>4.13810480717342</v>
+        <v>4.138104807173419</v>
       </c>
       <c r="E1535">
         <v>20</v>
       </c>
       <c r="F1535">
-        <v>3.598352006237756</v>
+        <v>3.598352006237755</v>
       </c>
     </row>
     <row r="1536" spans="1:6">
@@ -32259,13 +32259,13 @@
         <v>368</v>
       </c>
       <c r="D1538">
-        <v>2.75220767702499</v>
+        <v>2.752207677024991</v>
       </c>
       <c r="E1538">
         <v>12</v>
       </c>
       <c r="F1538">
-        <v>1.435934440186951</v>
+        <v>1.435934440186952</v>
       </c>
     </row>
     <row r="1539" spans="1:6">
@@ -32345,7 +32345,7 @@
         <v>19</v>
       </c>
       <c r="F1542">
-        <v>2.636734454982428</v>
+        <v>2.636734454982427</v>
       </c>
     </row>
     <row r="1543" spans="1:6">
@@ -32359,13 +32359,13 @@
         <v>368</v>
       </c>
       <c r="D1543">
-        <v>2.792760243920918</v>
+        <v>2.792760243920919</v>
       </c>
       <c r="E1543">
         <v>16</v>
       </c>
       <c r="F1543">
-        <v>1.942789734901508</v>
+        <v>1.942789734901509</v>
       </c>
     </row>
     <row r="1544" spans="1:6">
@@ -32379,7 +32379,7 @@
         <v>368</v>
       </c>
       <c r="D1544">
-        <v>3.917196019208219</v>
+        <v>3.91719601920822</v>
       </c>
       <c r="E1544">
         <v>22</v>
@@ -32525,7 +32525,7 @@
         <v>6</v>
       </c>
       <c r="F1551">
-        <v>0.6704763593434452</v>
+        <v>0.6704763593434453</v>
       </c>
     </row>
     <row r="1552" spans="1:6">
@@ -32559,13 +32559,13 @@
         <v>368</v>
       </c>
       <c r="D1553">
-        <v>3.053484197603712</v>
+        <v>3.05348419760371</v>
       </c>
       <c r="E1553">
         <v>20</v>
       </c>
       <c r="F1553">
-        <v>2.655203650090184</v>
+        <v>2.655203650090183</v>
       </c>
     </row>
     <row r="1554" spans="1:6">
@@ -32585,7 +32585,7 @@
         <v>22</v>
       </c>
       <c r="F1554">
-        <v>3.45558682916396</v>
+        <v>3.455586829163959</v>
       </c>
     </row>
     <row r="1555" spans="1:6">
@@ -32659,13 +32659,13 @@
         <v>368</v>
       </c>
       <c r="D1558">
-        <v>3.765638644971088</v>
+        <v>3.765638644971089</v>
       </c>
       <c r="E1558">
         <v>22</v>
       </c>
       <c r="F1558">
-        <v>3.601915225624519</v>
+        <v>3.60191522562452</v>
       </c>
     </row>
     <row r="1559" spans="1:6">
@@ -32759,7 +32759,7 @@
         <v>368</v>
       </c>
       <c r="D1563">
-        <v>3.063560208432401</v>
+        <v>3.0635602084324</v>
       </c>
       <c r="E1563">
         <v>18</v>
@@ -32779,7 +32779,7 @@
         <v>368</v>
       </c>
       <c r="D1564">
-        <v>2.875168316191135</v>
+        <v>2.875168316191136</v>
       </c>
       <c r="E1564">
         <v>20</v>
@@ -32805,7 +32805,7 @@
         <v>21</v>
       </c>
       <c r="F1565">
-        <v>2.527763112818963</v>
+        <v>2.527763112818964</v>
       </c>
     </row>
     <row r="1566" spans="1:6">
@@ -32819,13 +32819,13 @@
         <v>368</v>
       </c>
       <c r="D1566">
-        <v>4.198316280742895</v>
+        <v>4.198316280742896</v>
       </c>
       <c r="E1566">
         <v>21</v>
       </c>
       <c r="F1566">
-        <v>3.83324529980873</v>
+        <v>3.833245299808731</v>
       </c>
     </row>
     <row r="1567" spans="1:6">
@@ -33019,13 +33019,13 @@
         <v>368</v>
       </c>
       <c r="D1576">
-        <v>4.004599107049625</v>
+        <v>4.004599107049626</v>
       </c>
       <c r="E1576">
         <v>21</v>
       </c>
       <c r="F1576">
-        <v>3.656373097740962</v>
+        <v>3.656373097740961</v>
       </c>
     </row>
     <row r="1577" spans="1:6">
@@ -33125,7 +33125,7 @@
         <v>11</v>
       </c>
       <c r="F1581">
-        <v>1.403955446493067</v>
+        <v>1.403955446493066</v>
       </c>
     </row>
     <row r="1582" spans="1:6">
@@ -33319,13 +33319,13 @@
         <v>368</v>
       </c>
       <c r="D1591">
-        <v>4.015874020086627</v>
+        <v>4.015874020086626</v>
       </c>
       <c r="E1591">
         <v>23</v>
       </c>
       <c r="F1591">
-        <v>4.015874020086627</v>
+        <v>4.015874020086626</v>
       </c>
     </row>
     <row r="1592" spans="1:6">
@@ -33879,13 +33879,13 @@
         <v>368</v>
       </c>
       <c r="D1619">
-        <v>3.29910971129623</v>
+        <v>3.299109711296232</v>
       </c>
       <c r="E1619">
         <v>21</v>
       </c>
       <c r="F1619">
-        <v>3.012230605966123</v>
+        <v>3.012230605966124</v>
       </c>
     </row>
     <row r="1620" spans="1:6">
@@ -33945,7 +33945,7 @@
         <v>20</v>
       </c>
       <c r="F1622">
-        <v>2.527016646272121</v>
+        <v>2.527016646272122</v>
       </c>
     </row>
     <row r="1623" spans="1:6">
@@ -34019,7 +34019,7 @@
         <v>368</v>
       </c>
       <c r="D1626">
-        <v>2.297370391833334</v>
+        <v>2.297370391833333</v>
       </c>
       <c r="E1626">
         <v>13</v>
@@ -34299,13 +34299,13 @@
         <v>368</v>
       </c>
       <c r="D1640">
-        <v>4.390690167640812</v>
+        <v>4.390690167640813</v>
       </c>
       <c r="E1640">
         <v>23</v>
       </c>
       <c r="F1640">
-        <v>4.390690167640812</v>
+        <v>4.390690167640813</v>
       </c>
     </row>
     <row r="1641" spans="1:6">
@@ -34359,13 +34359,13 @@
         <v>368</v>
       </c>
       <c r="D1643">
-        <v>2.873105053977528</v>
+        <v>2.873105053977527</v>
       </c>
       <c r="E1643">
         <v>18</v>
       </c>
       <c r="F1643">
-        <v>2.248516998765022</v>
+        <v>2.248516998765021</v>
       </c>
     </row>
     <row r="1644" spans="1:6">
@@ -34419,13 +34419,13 @@
         <v>368</v>
       </c>
       <c r="D1646">
-        <v>3.708845866648792</v>
+        <v>3.708845866648791</v>
       </c>
       <c r="E1646">
         <v>22</v>
       </c>
       <c r="F1646">
-        <v>3.547591698533627</v>
+        <v>3.547591698533626</v>
       </c>
     </row>
     <row r="1647" spans="1:6">
@@ -34459,13 +34459,13 @@
         <v>368</v>
       </c>
       <c r="D1648">
-        <v>4.518385776245678</v>
+        <v>4.518385776245677</v>
       </c>
       <c r="E1648">
         <v>23</v>
       </c>
       <c r="F1648">
-        <v>4.518385776245678</v>
+        <v>4.518385776245677</v>
       </c>
     </row>
     <row r="1649" spans="1:6">
@@ -34619,7 +34619,7 @@
         <v>368</v>
       </c>
       <c r="D1656">
-        <v>2.959415595376667</v>
+        <v>2.959415595376668</v>
       </c>
       <c r="E1656">
         <v>21</v>
@@ -34705,7 +34705,7 @@
         <v>17</v>
       </c>
       <c r="F1660">
-        <v>1.484541052624587</v>
+        <v>1.484541052624588</v>
       </c>
     </row>
     <row r="1661" spans="1:6">
@@ -35199,13 +35199,13 @@
         <v>368</v>
       </c>
       <c r="D1685">
-        <v>4.388650496828623</v>
+        <v>4.388650496828624</v>
       </c>
       <c r="E1685">
         <v>23</v>
       </c>
       <c r="F1685">
-        <v>4.388650496828623</v>
+        <v>4.388650496828624</v>
       </c>
     </row>
     <row r="1686" spans="1:6">
@@ -35259,13 +35259,13 @@
         <v>368</v>
       </c>
       <c r="D1688">
-        <v>4.417147103418117</v>
+        <v>4.417147103418116</v>
       </c>
       <c r="E1688">
         <v>21</v>
       </c>
       <c r="F1688">
-        <v>4.033047355294802</v>
+        <v>4.033047355294801</v>
       </c>
     </row>
     <row r="1689" spans="1:6">
@@ -35399,13 +35399,13 @@
         <v>368</v>
       </c>
       <c r="D1695">
-        <v>1.347604767138865</v>
+        <v>1.347604767138866</v>
       </c>
       <c r="E1695">
         <v>8</v>
       </c>
       <c r="F1695">
-        <v>0.4687320929178661</v>
+        <v>0.4687320929178662</v>
       </c>
     </row>
     <row r="1696" spans="1:6">
@@ -35585,7 +35585,7 @@
         <v>21</v>
       </c>
       <c r="F1704">
-        <v>3.895707644435751</v>
+        <v>3.895707644435752</v>
       </c>
     </row>
     <row r="1705" spans="1:6">
@@ -35599,13 +35599,13 @@
         <v>368</v>
       </c>
       <c r="D1705">
-        <v>3.7035121202</v>
+        <v>3.703512120200001</v>
       </c>
       <c r="E1705">
         <v>4</v>
       </c>
       <c r="F1705">
-        <v>0.6440890643826087</v>
+        <v>0.6440890643826088</v>
       </c>
     </row>
     <row r="1706" spans="1:6">
@@ -35885,7 +35885,7 @@
         <v>20</v>
       </c>
       <c r="F1719">
-        <v>2.943147548980476</v>
+        <v>2.943147548980477</v>
       </c>
     </row>
     <row r="1720" spans="1:6">
@@ -36219,7 +36219,7 @@
         <v>368</v>
       </c>
       <c r="D1736">
-        <v>1.891024060158792</v>
+        <v>1.891024060158793</v>
       </c>
       <c r="E1736">
         <v>17</v>
@@ -36239,13 +36239,13 @@
         <v>368</v>
       </c>
       <c r="D1737">
-        <v>2.496933439561206</v>
+        <v>2.496933439561207</v>
       </c>
       <c r="E1737">
         <v>21</v>
       </c>
       <c r="F1737">
-        <v>2.27980879264284</v>
+        <v>2.279808792642841</v>
       </c>
     </row>
     <row r="1738" spans="1:6">
@@ -36259,13 +36259,13 @@
         <v>368</v>
       </c>
       <c r="D1738">
-        <v>4.007345473944433</v>
+        <v>4.007345473944432</v>
       </c>
       <c r="E1738">
         <v>23</v>
       </c>
       <c r="F1738">
-        <v>4.007345473944433</v>
+        <v>4.007345473944432</v>
       </c>
     </row>
     <row r="1739" spans="1:6">
@@ -36299,13 +36299,13 @@
         <v>368</v>
       </c>
       <c r="D1740">
-        <v>2.484574533353638</v>
+        <v>2.484574533353639</v>
       </c>
       <c r="E1740">
         <v>20</v>
       </c>
       <c r="F1740">
-        <v>2.160499594220555</v>
+        <v>2.160499594220556</v>
       </c>
     </row>
     <row r="1741" spans="1:6">
@@ -36339,7 +36339,7 @@
         <v>368</v>
       </c>
       <c r="D1742">
-        <v>1.023256799384283</v>
+        <v>1.023256799384284</v>
       </c>
       <c r="E1742">
         <v>4</v>
@@ -36399,13 +36399,13 @@
         <v>368</v>
       </c>
       <c r="D1745">
-        <v>3.76691058660518</v>
+        <v>3.766910586605179</v>
       </c>
       <c r="E1745">
         <v>23</v>
       </c>
       <c r="F1745">
-        <v>3.76691058660518</v>
+        <v>3.766910586605179</v>
       </c>
     </row>
     <row r="1746" spans="1:6">
@@ -36699,13 +36699,13 @@
         <v>368</v>
       </c>
       <c r="D1760">
-        <v>3.365227045626438</v>
+        <v>3.365227045626437</v>
       </c>
       <c r="E1760">
         <v>23</v>
       </c>
       <c r="F1760">
-        <v>3.365227045626438</v>
+        <v>3.365227045626437</v>
       </c>
     </row>
     <row r="1761" spans="1:6">
@@ -36759,13 +36759,13 @@
         <v>368</v>
       </c>
       <c r="D1763">
-        <v>3.676516246086687</v>
+        <v>3.676516246086686</v>
       </c>
       <c r="E1763">
         <v>23</v>
       </c>
       <c r="F1763">
-        <v>3.676516246086687</v>
+        <v>3.676516246086686</v>
       </c>
     </row>
     <row r="1764" spans="1:6">
@@ -36779,7 +36779,7 @@
         <v>368</v>
       </c>
       <c r="D1764">
-        <v>1.867594293142961</v>
+        <v>1.867594293142962</v>
       </c>
       <c r="E1764">
         <v>16</v>
@@ -36865,7 +36865,7 @@
         <v>17</v>
       </c>
       <c r="F1768">
-        <v>2.165825338547506</v>
+        <v>2.165825338547507</v>
       </c>
     </row>
     <row r="1769" spans="1:6">
@@ -37005,7 +37005,7 @@
         <v>15</v>
       </c>
       <c r="F1775">
-        <v>1.06451055903594</v>
+        <v>1.064510559035939</v>
       </c>
     </row>
     <row r="1776" spans="1:6">
@@ -37139,13 +37139,13 @@
         <v>368</v>
       </c>
       <c r="D1782">
-        <v>4.471560833393262</v>
+        <v>4.471560833393261</v>
       </c>
       <c r="E1782">
         <v>23</v>
       </c>
       <c r="F1782">
-        <v>4.471560833393262</v>
+        <v>4.471560833393261</v>
       </c>
     </row>
     <row r="1783" spans="1:6">
@@ -37399,13 +37399,13 @@
         <v>368</v>
       </c>
       <c r="D1795">
-        <v>2.903547232012863</v>
+        <v>2.903547232012864</v>
       </c>
       <c r="E1795">
         <v>23</v>
       </c>
       <c r="F1795">
-        <v>2.903547232012863</v>
+        <v>2.903547232012864</v>
       </c>
     </row>
     <row r="1796" spans="1:6">
@@ -37439,13 +37439,13 @@
         <v>368</v>
       </c>
       <c r="D1797">
-        <v>2.521173969374276</v>
+        <v>2.521173969374277</v>
       </c>
       <c r="E1797">
         <v>7</v>
       </c>
       <c r="F1797">
-        <v>0.7673138167660839</v>
+        <v>0.7673138167660842</v>
       </c>
     </row>
     <row r="1798" spans="1:6">
@@ -37599,13 +37599,13 @@
         <v>368</v>
       </c>
       <c r="D1805">
-        <v>4.225348305744456</v>
+        <v>4.225348305744457</v>
       </c>
       <c r="E1805">
         <v>23</v>
       </c>
       <c r="F1805">
-        <v>4.225348305744456</v>
+        <v>4.225348305744457</v>
       </c>
     </row>
     <row r="1806" spans="1:6">
@@ -37819,7 +37819,7 @@
         <v>368</v>
       </c>
       <c r="D1816">
-        <v>3.945302831002744</v>
+        <v>3.945302831002745</v>
       </c>
       <c r="E1816">
         <v>20</v>
@@ -37839,7 +37839,7 @@
         <v>368</v>
       </c>
       <c r="D1817">
-        <v>3.030628760042595</v>
+        <v>3.030628760042596</v>
       </c>
       <c r="E1817">
         <v>21</v>
@@ -37905,7 +37905,7 @@
         <v>5</v>
       </c>
       <c r="F1820">
-        <v>0.2281454059279735</v>
+        <v>0.2281454059279734</v>
       </c>
     </row>
     <row r="1821" spans="1:6">
@@ -37999,13 +37999,13 @@
         <v>368</v>
       </c>
       <c r="D1825">
-        <v>1.973575858549797</v>
+        <v>1.973575858549796</v>
       </c>
       <c r="E1825">
         <v>5</v>
       </c>
       <c r="F1825">
-        <v>0.429038230119521</v>
+        <v>0.4290382301195209</v>
       </c>
     </row>
     <row r="1826" spans="1:6">
@@ -38039,13 +38039,13 @@
         <v>368</v>
       </c>
       <c r="D1827">
-        <v>4.395143558286711</v>
+        <v>4.395143558286712</v>
       </c>
       <c r="E1827">
         <v>23</v>
       </c>
       <c r="F1827">
-        <v>4.395143558286711</v>
+        <v>4.395143558286712</v>
       </c>
     </row>
     <row r="1828" spans="1:6">
@@ -38139,13 +38139,13 @@
         <v>368</v>
       </c>
       <c r="D1832">
-        <v>4.215247048650874</v>
+        <v>4.215247048650873</v>
       </c>
       <c r="E1832">
         <v>22</v>
       </c>
       <c r="F1832">
-        <v>4.031975437839967</v>
+        <v>4.031975437839966</v>
       </c>
     </row>
     <row r="1833" spans="1:6">
@@ -38199,7 +38199,7 @@
         <v>368</v>
       </c>
       <c r="D1835">
-        <v>4.173262341506855</v>
+        <v>4.173262341506856</v>
       </c>
       <c r="E1835">
         <v>19</v>
@@ -38279,7 +38279,7 @@
         <v>368</v>
       </c>
       <c r="D1839">
-        <v>1.986661287659455</v>
+        <v>1.986661287659454</v>
       </c>
       <c r="E1839">
         <v>14</v>
@@ -38425,7 +38425,7 @@
         <v>14</v>
       </c>
       <c r="F1846">
-        <v>0.9664099719977424</v>
+        <v>0.9664099719977428</v>
       </c>
     </row>
     <row r="1847" spans="1:6">
@@ -38639,7 +38639,7 @@
         <v>368</v>
       </c>
       <c r="D1857">
-        <v>2.612190737799733</v>
+        <v>2.612190737799734</v>
       </c>
       <c r="E1857">
         <v>20</v>
@@ -38719,13 +38719,13 @@
         <v>368</v>
       </c>
       <c r="D1861">
-        <v>4.7538727920964</v>
+        <v>4.753872792096401</v>
       </c>
       <c r="E1861">
         <v>23</v>
       </c>
       <c r="F1861">
-        <v>4.7538727920964</v>
+        <v>4.753872792096401</v>
       </c>
     </row>
     <row r="1862" spans="1:6">
@@ -38879,7 +38879,7 @@
         <v>368</v>
       </c>
       <c r="D1869">
-        <v>2.712037627700279</v>
+        <v>2.712037627700278</v>
       </c>
       <c r="E1869">
         <v>17</v>
@@ -39099,13 +39099,13 @@
         <v>368</v>
       </c>
       <c r="D1880">
-        <v>3.652675937797479</v>
+        <v>3.652675937797478</v>
       </c>
       <c r="E1880">
         <v>23</v>
       </c>
       <c r="F1880">
-        <v>3.652675937797479</v>
+        <v>3.652675937797478</v>
       </c>
     </row>
     <row r="1881" spans="1:6">
@@ -39119,13 +39119,13 @@
         <v>368</v>
       </c>
       <c r="D1881">
-        <v>3.855604877037941</v>
+        <v>3.855604877037942</v>
       </c>
       <c r="E1881">
         <v>23</v>
       </c>
       <c r="F1881">
-        <v>3.855604877037941</v>
+        <v>3.855604877037942</v>
       </c>
     </row>
     <row r="1882" spans="1:6">
@@ -39199,13 +39199,13 @@
         <v>368</v>
       </c>
       <c r="D1885">
-        <v>2.444969295436951</v>
+        <v>2.444969295436952</v>
       </c>
       <c r="E1885">
         <v>20</v>
       </c>
       <c r="F1885">
-        <v>2.126060256901696</v>
+        <v>2.126060256901697</v>
       </c>
     </row>
     <row r="1886" spans="1:6">
@@ -39419,13 +39419,13 @@
         <v>368</v>
       </c>
       <c r="D1896">
-        <v>3.58852500577852</v>
+        <v>3.588525005778522</v>
       </c>
       <c r="E1896">
         <v>20</v>
       </c>
       <c r="F1896">
-        <v>3.120456526763931</v>
+        <v>3.120456526763932</v>
       </c>
     </row>
     <row r="1897" spans="1:6">
@@ -39465,7 +39465,7 @@
         <v>18</v>
       </c>
       <c r="F1898">
-        <v>2.054329367132809</v>
+        <v>2.054329367132808</v>
       </c>
     </row>
     <row r="1899" spans="1:6">
@@ -39499,7 +39499,7 @@
         <v>368</v>
       </c>
       <c r="D1900">
-        <v>2.710696559434093</v>
+        <v>2.710696559434094</v>
       </c>
       <c r="E1900">
         <v>16</v>
@@ -39545,7 +39545,7 @@
         <v>4</v>
       </c>
       <c r="F1902">
-        <v>0.5916323906434783</v>
+        <v>0.5916323906434782</v>
       </c>
     </row>
     <row r="1903" spans="1:6">
@@ -39585,7 +39585,7 @@
         <v>15</v>
       </c>
       <c r="F1904">
-        <v>2.347755729824896</v>
+        <v>2.347755729824895</v>
       </c>
     </row>
     <row r="1905" spans="1:6">
@@ -39739,13 +39739,13 @@
         <v>368</v>
       </c>
       <c r="D1912">
-        <v>2.654439826230249</v>
+        <v>2.65443982623025</v>
       </c>
       <c r="E1912">
         <v>20</v>
       </c>
       <c r="F1912">
-        <v>2.308208544548043</v>
+        <v>2.308208544548044</v>
       </c>
     </row>
     <row r="1913" spans="1:6">
@@ -39799,13 +39799,13 @@
         <v>369</v>
       </c>
       <c r="D1915">
-        <v>1.734179963866667</v>
+        <v>1.734179963866666</v>
       </c>
       <c r="E1915">
         <v>5</v>
       </c>
       <c r="F1915">
-        <v>0.3769956443188406</v>
+        <v>0.3769956443188405</v>
       </c>
     </row>
     <row r="1916" spans="1:6">
@@ -39845,7 +39845,7 @@
         <v>7</v>
       </c>
       <c r="F1917">
-        <v>0.559984556906076</v>
+        <v>0.5599845569060758</v>
       </c>
     </row>
     <row r="1918" spans="1:6">
@@ -39965,7 +39965,7 @@
         <v>7</v>
       </c>
       <c r="F1923">
-        <v>0.4587831695796107</v>
+        <v>0.4587831695796108</v>
       </c>
     </row>
     <row r="1924" spans="1:6">
@@ -40145,7 +40145,7 @@
         <v>3</v>
       </c>
       <c r="F1932">
-        <v>0.1495482256456521</v>
+        <v>0.1495482256456522</v>
       </c>
     </row>
     <row r="1933" spans="1:6">
@@ -40479,13 +40479,13 @@
         <v>369</v>
       </c>
       <c r="D1949">
-        <v>2.143327237323334</v>
+        <v>2.143327237323333</v>
       </c>
       <c r="E1949">
         <v>5</v>
       </c>
       <c r="F1949">
-        <v>0.4659407037659421</v>
+        <v>0.465940703765942</v>
       </c>
     </row>
     <row r="1950" spans="1:6">
@@ -40539,13 +40539,13 @@
         <v>369</v>
       </c>
       <c r="D1952">
-        <v>2.573924209533333</v>
+        <v>2.573924209533334</v>
       </c>
       <c r="E1952">
         <v>5</v>
       </c>
       <c r="F1952">
-        <v>0.5595487412028985</v>
+        <v>0.5595487412028987</v>
       </c>
     </row>
     <row r="1953" spans="1:6">
@@ -40579,13 +40579,13 @@
         <v>369</v>
       </c>
       <c r="D1954">
-        <v>2.830236074466666</v>
+        <v>2.830236074466667</v>
       </c>
       <c r="E1954">
         <v>5</v>
       </c>
       <c r="F1954">
-        <v>0.6152687118405796</v>
+        <v>0.6152687118405797</v>
       </c>
     </row>
     <row r="1955" spans="1:6">
@@ -40725,7 +40725,7 @@
         <v>5</v>
       </c>
       <c r="F1961">
-        <v>0.3145281950978261</v>
+        <v>0.314528195097826</v>
       </c>
     </row>
     <row r="1962" spans="1:6">
@@ -40859,13 +40859,13 @@
         <v>369</v>
       </c>
       <c r="D1968">
-        <v>1.958757984853333</v>
+        <v>1.958757984853334</v>
       </c>
       <c r="E1968">
         <v>5</v>
       </c>
       <c r="F1968">
-        <v>0.4258169532289855</v>
+        <v>0.4258169532289856</v>
       </c>
     </row>
     <row r="1969" spans="1:6">
@@ -41239,13 +41239,13 @@
         <v>369</v>
       </c>
       <c r="D1987">
-        <v>2.866591053527778</v>
+        <v>2.866591053527777</v>
       </c>
       <c r="E1987">
         <v>6</v>
       </c>
       <c r="F1987">
-        <v>0.747806361789855</v>
+        <v>0.7478063617898549</v>
       </c>
     </row>
     <row r="1988" spans="1:6">
@@ -41279,13 +41279,13 @@
         <v>369</v>
       </c>
       <c r="D1989">
-        <v>2.498214228930873</v>
+        <v>2.498214228930874</v>
       </c>
       <c r="E1989">
         <v>7</v>
       </c>
       <c r="F1989">
-        <v>0.7603260696746137</v>
+        <v>0.7603260696746138</v>
       </c>
     </row>
     <row r="1990" spans="1:6">
@@ -41319,7 +41319,7 @@
         <v>369</v>
       </c>
       <c r="D1991">
-        <v>3.018068456556955</v>
+        <v>3.018068456556956</v>
       </c>
       <c r="E1991">
         <v>7</v>
@@ -41825,7 +41825,7 @@
         <v>5</v>
       </c>
       <c r="F2016">
-        <v>0.4232467702659419</v>
+        <v>0.423246770265942</v>
       </c>
     </row>
     <row r="2017" spans="1:6">
@@ -41885,7 +41885,7 @@
         <v>5</v>
       </c>
       <c r="F2019">
-        <v>0.4344112645007246</v>
+        <v>0.4344112645007245</v>
       </c>
     </row>
     <row r="2020" spans="1:6">
@@ -42305,7 +42305,7 @@
         <v>6</v>
       </c>
       <c r="F2040">
-        <v>0.7476078466275361</v>
+        <v>0.7476078466275363</v>
       </c>
     </row>
     <row r="2041" spans="1:6">
@@ -42345,7 +42345,7 @@
         <v>5</v>
       </c>
       <c r="F2042">
-        <v>0.5075399520913044</v>
+        <v>0.5075399520913043</v>
       </c>
     </row>
     <row r="2043" spans="1:6">
@@ -42625,7 +42625,7 @@
         <v>4</v>
       </c>
       <c r="F2056">
-        <v>0.3939317182608695</v>
+        <v>0.3939317182608696</v>
       </c>
     </row>
     <row r="2057" spans="1:6">
@@ -42985,7 +42985,7 @@
         <v>3</v>
       </c>
       <c r="F2074">
-        <v>0.2035573131961956</v>
+        <v>0.2035573131961957</v>
       </c>
     </row>
     <row r="2075" spans="1:6">
@@ -43005,7 +43005,7 @@
         <v>5</v>
       </c>
       <c r="F2075">
-        <v>0.5458825463043477</v>
+        <v>0.5458825463043478</v>
       </c>
     </row>
     <row r="2076" spans="1:6">
@@ -43499,13 +43499,13 @@
         <v>370</v>
       </c>
       <c r="D2100">
-        <v>4.718880317166667</v>
+        <v>4.718880317166668</v>
       </c>
       <c r="E2100">
         <v>3</v>
       </c>
       <c r="F2100">
-        <v>0.88479005946875</v>
+        <v>0.8847900594687501</v>
       </c>
     </row>
     <row r="2101" spans="1:6">
@@ -47019,7 +47019,7 @@
         <v>371</v>
       </c>
       <c r="D2276">
-        <v>4.6081550223</v>
+        <v>4.608155022299999</v>
       </c>
       <c r="E2276">
         <v>5</v>
@@ -47159,7 +47159,7 @@
         <v>371</v>
       </c>
       <c r="D2283">
-        <v>4.723422880399999</v>
+        <v>4.7234228804</v>
       </c>
       <c r="E2283">
         <v>5</v>
@@ -47279,7 +47279,7 @@
         <v>371</v>
       </c>
       <c r="D2289">
-        <v>4.56123441925</v>
+        <v>4.561234419250001</v>
       </c>
       <c r="E2289">
         <v>4</v>
@@ -47419,7 +47419,7 @@
         <v>371</v>
       </c>
       <c r="D2296">
-        <v>4.11499475725</v>
+        <v>4.114994757250001</v>
       </c>
       <c r="E2296">
         <v>4</v>
@@ -47599,7 +47599,7 @@
         <v>371</v>
       </c>
       <c r="D2305">
-        <v>3.875219177800001</v>
+        <v>3.8752191778</v>
       </c>
       <c r="E2305">
         <v>5</v>
@@ -47739,7 +47739,7 @@
         <v>371</v>
       </c>
       <c r="D2312">
-        <v>5.2811478695</v>
+        <v>5.281147869500001</v>
       </c>
       <c r="E2312">
         <v>4</v>
@@ -48159,13 +48159,13 @@
         <v>371</v>
       </c>
       <c r="D2333">
-        <v>4.418435343600001</v>
+        <v>4.4184353436</v>
       </c>
       <c r="E2333">
         <v>5</v>
       </c>
       <c r="F2333">
-        <v>1.380761044875001</v>
+        <v>1.380761044875</v>
       </c>
     </row>
     <row r="2334" spans="1:6">
@@ -48905,7 +48905,7 @@
         <v>4</v>
       </c>
       <c r="F2370">
-        <v>0.82220151978125</v>
+        <v>0.8222015197812501</v>
       </c>
     </row>
     <row r="2371" spans="1:6">
@@ -49319,7 +49319,7 @@
         <v>371</v>
       </c>
       <c r="D2391">
-        <v>3.9202289215</v>
+        <v>3.920228921500001</v>
       </c>
       <c r="E2391">
         <v>4</v>
@@ -49499,7 +49499,7 @@
         <v>371</v>
       </c>
       <c r="D2400">
-        <v>4.8337318519</v>
+        <v>4.833731851900001</v>
       </c>
       <c r="E2400">
         <v>5</v>
@@ -49639,7 +49639,7 @@
         <v>371</v>
       </c>
       <c r="D2407">
-        <v>5.484471914</v>
+        <v>5.484471914000001</v>
       </c>
       <c r="E2407">
         <v>3</v>
@@ -49699,13 +49699,13 @@
         <v>371</v>
       </c>
       <c r="D2410">
-        <v>4.530327288166666</v>
+        <v>4.530327288166667</v>
       </c>
       <c r="E2410">
         <v>3</v>
       </c>
       <c r="F2410">
-        <v>0.8494363665312499</v>
+        <v>0.8494363665312501</v>
       </c>
     </row>
     <row r="2411" spans="1:6">
@@ -50119,7 +50119,7 @@
         <v>371</v>
       </c>
       <c r="D2431">
-        <v>4.8470283261</v>
+        <v>4.847028326099999</v>
       </c>
       <c r="E2431">
         <v>5</v>
@@ -50259,7 +50259,7 @@
         <v>371</v>
       </c>
       <c r="D2438">
-        <v>5.27295403925</v>
+        <v>5.272954039250001</v>
       </c>
       <c r="E2438">
         <v>4</v>
@@ -50459,7 +50459,7 @@
         <v>371</v>
       </c>
       <c r="D2448">
-        <v>4.8248505746</v>
+        <v>4.824850574600001</v>
       </c>
       <c r="E2448">
         <v>5</v>
@@ -50479,7 +50479,7 @@
         <v>371</v>
       </c>
       <c r="D2449">
-        <v>4.8003856274</v>
+        <v>4.800385627399999</v>
       </c>
       <c r="E2449">
         <v>5</v>
@@ -50659,7 +50659,7 @@
         <v>371</v>
       </c>
       <c r="D2458">
-        <v>4.375182382125</v>
+        <v>4.375182382125001</v>
       </c>
       <c r="E2458">
         <v>4</v>
@@ -50759,7 +50759,7 @@
         <v>371</v>
       </c>
       <c r="D2463">
-        <v>4.70745182425</v>
+        <v>4.707451824250001</v>
       </c>
       <c r="E2463">
         <v>4</v>
@@ -50865,7 +50865,7 @@
         <v>3</v>
       </c>
       <c r="F2468">
-        <v>0.7750633901875001</v>
+        <v>0.7750633901875</v>
       </c>
     </row>
     <row r="2469" spans="1:6">
@@ -51079,13 +51079,13 @@
         <v>372</v>
       </c>
       <c r="D2479">
-        <v>2.77337538503343</v>
+        <v>2.773375385033431</v>
       </c>
       <c r="E2479">
         <v>3</v>
       </c>
       <c r="F2479">
-        <v>0.5200078846937681</v>
+        <v>0.5200078846937682</v>
       </c>
     </row>
     <row r="2480" spans="1:6">
@@ -51225,7 +51225,7 @@
         <v>3</v>
       </c>
       <c r="F2486">
-        <v>0.5195660737268767</v>
+        <v>0.5195660737268768</v>
       </c>
     </row>
     <row r="2487" spans="1:6">
@@ -51285,7 +51285,7 @@
         <v>7</v>
       </c>
       <c r="F2489">
-        <v>1.725329598867278</v>
+        <v>1.725329598867277</v>
       </c>
     </row>
     <row r="2490" spans="1:6">
@@ -51299,13 +51299,13 @@
         <v>372</v>
       </c>
       <c r="D2490">
-        <v>2.829346815615196</v>
+        <v>2.829346815615197</v>
       </c>
       <c r="E2490">
         <v>3</v>
       </c>
       <c r="F2490">
-        <v>0.5305025279278494</v>
+        <v>0.5305025279278495</v>
       </c>
     </row>
     <row r="2491" spans="1:6">
@@ -51879,7 +51879,7 @@
         <v>372</v>
       </c>
       <c r="D2519">
-        <v>3.134238214585429</v>
+        <v>3.134238214585428</v>
       </c>
       <c r="E2519">
         <v>6</v>
@@ -51999,7 +51999,7 @@
         <v>372</v>
       </c>
       <c r="D2525">
-        <v>3.675253252954531</v>
+        <v>3.67525325295453</v>
       </c>
       <c r="E2525">
         <v>4</v>
@@ -52305,7 +52305,7 @@
         <v>3</v>
       </c>
       <c r="F2540">
-        <v>0.629701309545627</v>
+        <v>0.6297013095456269</v>
       </c>
     </row>
     <row r="2541" spans="1:6">
@@ -52359,7 +52359,7 @@
         <v>372</v>
       </c>
       <c r="D2543">
-        <v>4.56103569340342</v>
+        <v>4.561035693403419</v>
       </c>
       <c r="E2543">
         <v>5</v>
@@ -52505,7 +52505,7 @@
         <v>8</v>
       </c>
       <c r="F2550">
-        <v>2.073002927362029</v>
+        <v>2.073002927362028</v>
       </c>
     </row>
     <row r="2551" spans="1:6">
@@ -53239,13 +53239,13 @@
         <v>372</v>
       </c>
       <c r="D2587">
-        <v>3.231009952356785</v>
+        <v>3.231009952356786</v>
       </c>
       <c r="E2587">
         <v>6</v>
       </c>
       <c r="F2587">
-        <v>1.211628732133794</v>
+        <v>1.211628732133795</v>
       </c>
     </row>
     <row r="2588" spans="1:6">
@@ -53685,7 +53685,7 @@
         <v>3</v>
       </c>
       <c r="F2609">
-        <v>0.4225833548726347</v>
+        <v>0.4225833548726348</v>
       </c>
     </row>
     <row r="2610" spans="1:6">
@@ -53719,7 +53719,7 @@
         <v>372</v>
       </c>
       <c r="D2611">
-        <v>3.701075214385313</v>
+        <v>3.701075214385314</v>
       </c>
       <c r="E2611">
         <v>6</v>
@@ -53785,7 +53785,7 @@
         <v>3</v>
       </c>
       <c r="F2614">
-        <v>0.709678820165521</v>
+        <v>0.7096788201655209</v>
       </c>
     </row>
     <row r="2615" spans="1:6">
@@ -54119,7 +54119,7 @@
         <v>372</v>
       </c>
       <c r="D2631">
-        <v>4.071022426828064</v>
+        <v>4.071022426828063</v>
       </c>
       <c r="E2631">
         <v>7</v>
@@ -54319,7 +54319,7 @@
         <v>372</v>
       </c>
       <c r="D2641">
-        <v>4.430412110081659</v>
+        <v>4.430412110081658</v>
       </c>
       <c r="E2641">
         <v>6</v>
@@ -54619,7 +54619,7 @@
         <v>372</v>
       </c>
       <c r="D2656">
-        <v>4.191406299524564</v>
+        <v>4.191406299524565</v>
       </c>
       <c r="E2656">
         <v>4</v>
@@ -54719,13 +54719,13 @@
         <v>372</v>
       </c>
       <c r="D2661">
-        <v>3.909269979660422</v>
+        <v>3.909269979660423</v>
       </c>
       <c r="E2661">
         <v>6</v>
       </c>
       <c r="F2661">
-        <v>1.465976242372658</v>
+        <v>1.465976242372659</v>
       </c>
     </row>
     <row r="2662" spans="1:6">
@@ -54739,13 +54739,13 @@
         <v>372</v>
       </c>
       <c r="D2662">
-        <v>2.920654455502724</v>
+        <v>2.920654455502723</v>
       </c>
       <c r="E2662">
         <v>4</v>
       </c>
       <c r="F2662">
-        <v>0.730163613875681</v>
+        <v>0.7301636138756809</v>
       </c>
     </row>
     <row r="2663" spans="1:6">
@@ -55045,7 +55045,7 @@
         <v>3</v>
       </c>
       <c r="F2677">
-        <v>0.41603125</v>
+        <v>0.4160312499999999</v>
       </c>
     </row>
     <row r="2678" spans="1:6">
@@ -55199,7 +55199,7 @@
         <v>372</v>
       </c>
       <c r="D2685">
-        <v>4.520372593898574</v>
+        <v>4.520372593898573</v>
       </c>
       <c r="E2685">
         <v>8</v>
@@ -55599,13 +55599,13 @@
         <v>372</v>
       </c>
       <c r="D2705">
-        <v>2.528174648503161</v>
+        <v>2.528174648503162</v>
       </c>
       <c r="E2705">
         <v>3</v>
       </c>
       <c r="F2705">
-        <v>0.4740327465943427</v>
+        <v>0.4740327465943428</v>
       </c>
     </row>
     <row r="2706" spans="1:6">
@@ -55965,7 +55965,7 @@
         <v>8</v>
       </c>
       <c r="F2723">
-        <v>0.6765</v>
+        <v>0.6765000000000001</v>
       </c>
     </row>
     <row r="2724" spans="1:6">
@@ -56239,7 +56239,7 @@
         <v>373</v>
       </c>
       <c r="D2737">
-        <v>3.643391478820937</v>
+        <v>3.643391478820938</v>
       </c>
       <c r="E2737">
         <v>13</v>
@@ -56399,7 +56399,7 @@
         <v>373</v>
       </c>
       <c r="D2745">
-        <v>1.787925249614144</v>
+        <v>1.787925249614143</v>
       </c>
       <c r="E2745">
         <v>9</v>
@@ -56539,7 +56539,7 @@
         <v>373</v>
       </c>
       <c r="D2752">
-        <v>2.626756472043868</v>
+        <v>2.626756472043869</v>
       </c>
       <c r="E2752">
         <v>9</v>
@@ -56619,7 +56619,7 @@
         <v>373</v>
       </c>
       <c r="D2756">
-        <v>4.573346404722222</v>
+        <v>4.573346404722223</v>
       </c>
       <c r="E2756">
         <v>9</v>
@@ -56639,7 +56639,7 @@
         <v>373</v>
       </c>
       <c r="D2757">
-        <v>3.4566162505044</v>
+        <v>3.456616250504399</v>
       </c>
       <c r="E2757">
         <v>12</v>
@@ -56685,7 +56685,7 @@
         <v>5</v>
       </c>
       <c r="F2759">
-        <v>0.4554068677148437</v>
+        <v>0.4554068677148438</v>
       </c>
     </row>
     <row r="2760" spans="1:6">
@@ -56719,7 +56719,7 @@
         <v>373</v>
       </c>
       <c r="D2761">
-        <v>3.462801135136818</v>
+        <v>3.462801135136817</v>
       </c>
       <c r="E2761">
         <v>14</v>
@@ -56945,7 +56945,7 @@
         <v>5</v>
       </c>
       <c r="F2772">
-        <v>0.7323690950976564</v>
+        <v>0.7323690950976562</v>
       </c>
     </row>
     <row r="2773" spans="1:6">
@@ -57519,7 +57519,7 @@
         <v>373</v>
       </c>
       <c r="D2801">
-        <v>3.502568675071818</v>
+        <v>3.502568675071819</v>
       </c>
       <c r="E2801">
         <v>12</v>
@@ -58005,7 +58005,7 @@
         <v>10</v>
       </c>
       <c r="F2825">
-        <v>1.546339156060966</v>
+        <v>1.546339156060965</v>
       </c>
     </row>
     <row r="2826" spans="1:6">
@@ -58425,7 +58425,7 @@
         <v>6</v>
       </c>
       <c r="F2846">
-        <v>1.095958333333333</v>
+        <v>1.095958333333334</v>
       </c>
     </row>
     <row r="2847" spans="1:6">
@@ -58439,7 +58439,7 @@
         <v>373</v>
       </c>
       <c r="D2847">
-        <v>2.342333737299094</v>
+        <v>2.342333737299095</v>
       </c>
       <c r="E2847">
         <v>12</v>
@@ -58459,13 +58459,13 @@
         <v>373</v>
       </c>
       <c r="D2848">
-        <v>3.424203267531916</v>
+        <v>3.424203267531915</v>
       </c>
       <c r="E2848">
         <v>16</v>
       </c>
       <c r="F2848">
-        <v>3.424203267531916</v>
+        <v>3.424203267531915</v>
       </c>
     </row>
     <row r="2849" spans="1:6">
@@ -58499,7 +58499,7 @@
         <v>373</v>
       </c>
       <c r="D2850">
-        <v>4.738085373416666</v>
+        <v>4.738085373416667</v>
       </c>
       <c r="E2850">
         <v>6</v>
@@ -58685,7 +58685,7 @@
         <v>6</v>
       </c>
       <c r="F2859">
-        <v>0.90415296076875</v>
+        <v>0.9041529607687502</v>
       </c>
     </row>
     <row r="2860" spans="1:6">
@@ -58719,7 +58719,7 @@
         <v>373</v>
       </c>
       <c r="D2861">
-        <v>2.709821570628152</v>
+        <v>2.709821570628153</v>
       </c>
       <c r="E2861">
         <v>9</v>
@@ -58839,7 +58839,7 @@
         <v>373</v>
       </c>
       <c r="D2867">
-        <v>5.399054828500556</v>
+        <v>5.399054828500557</v>
       </c>
       <c r="E2867">
         <v>3</v>
@@ -58919,13 +58919,13 @@
         <v>373</v>
       </c>
       <c r="D2871">
-        <v>4.375358580260731</v>
+        <v>4.375358580260732</v>
       </c>
       <c r="E2871">
         <v>14</v>
       </c>
       <c r="F2871">
-        <v>3.82843875772814</v>
+        <v>3.828438757728141</v>
       </c>
     </row>
     <row r="2872" spans="1:6">
@@ -59119,7 +59119,7 @@
         <v>373</v>
       </c>
       <c r="D2881">
-        <v>2.619417799067803</v>
+        <v>2.619417799067802</v>
       </c>
       <c r="E2881">
         <v>9</v>
@@ -59319,7 +59319,7 @@
         <v>373</v>
       </c>
       <c r="D2891">
-        <v>5.413930302000001</v>
+        <v>5.413930302</v>
       </c>
       <c r="E2891">
         <v>4</v>
@@ -59799,13 +59799,13 @@
         <v>373</v>
       </c>
       <c r="D2915">
-        <v>3.751410786351983</v>
+        <v>3.751410786351984</v>
       </c>
       <c r="E2915">
         <v>13</v>
       </c>
       <c r="F2915">
-        <v>3.048021263910986</v>
+        <v>3.048021263910987</v>
       </c>
     </row>
     <row r="2916" spans="1:6">
@@ -59865,7 +59865,7 @@
         <v>15</v>
       </c>
       <c r="F2918">
-        <v>3.425179099102868</v>
+        <v>3.425179099102867</v>
       </c>
     </row>
     <row r="2919" spans="1:6">
@@ -60339,7 +60339,7 @@
         <v>373</v>
       </c>
       <c r="D2942">
-        <v>2.974167735801326</v>
+        <v>2.974167735801327</v>
       </c>
       <c r="E2942">
         <v>11</v>
@@ -60439,7 +60439,7 @@
         <v>373</v>
       </c>
       <c r="D2947">
-        <v>3.940358097638671</v>
+        <v>3.94035809763867</v>
       </c>
       <c r="E2947">
         <v>13</v>
@@ -60459,7 +60459,7 @@
         <v>373</v>
       </c>
       <c r="D2948">
-        <v>3.716117279005432</v>
+        <v>3.716117279005431</v>
       </c>
       <c r="E2948">
         <v>13</v>
@@ -60599,13 +60599,13 @@
         <v>373</v>
       </c>
       <c r="D2955">
-        <v>4.576907328161821</v>
+        <v>4.576907328161822</v>
       </c>
       <c r="E2955">
         <v>13</v>
       </c>
       <c r="F2955">
-        <v>3.718737204131479</v>
+        <v>3.71873720413148</v>
       </c>
     </row>
     <row r="2956" spans="1:6">
@@ -60725,7 +60725,7 @@
         <v>5</v>
       </c>
       <c r="F2961">
-        <v>0.8906249999999999</v>
+        <v>0.890625</v>
       </c>
     </row>
     <row r="2962" spans="1:6">
@@ -60879,13 +60879,13 @@
         <v>373</v>
       </c>
       <c r="D2969">
-        <v>4.788296107692969</v>
+        <v>4.788296107692968</v>
       </c>
       <c r="E2969">
         <v>15</v>
       </c>
       <c r="F2969">
-        <v>4.489027600962158</v>
+        <v>4.489027600962157</v>
       </c>
     </row>
     <row r="2970" spans="1:6">
@@ -61085,7 +61085,7 @@
         <v>7</v>
       </c>
       <c r="F2979">
-        <v>0.6453470829225</v>
+        <v>0.6453470829225001</v>
       </c>
     </row>
     <row r="2980" spans="1:6">
@@ -61399,7 +61399,7 @@
         <v>373</v>
       </c>
       <c r="D2995">
-        <v>3.506905467587239</v>
+        <v>3.506905467587238</v>
       </c>
       <c r="E2995">
         <v>14</v>
@@ -61425,7 +61425,7 @@
         <v>5</v>
       </c>
       <c r="F2996">
-        <v>0.8157923160267856</v>
+        <v>0.8157923160267857</v>
       </c>
     </row>
     <row r="2997" spans="1:6">
@@ -61445,7 +61445,7 @@
         <v>8</v>
       </c>
       <c r="F2997">
-        <v>0.9425916975999999</v>
+        <v>0.9425916976000002</v>
       </c>
     </row>
     <row r="2998" spans="1:6">
@@ -61485,7 +61485,7 @@
         <v>5</v>
       </c>
       <c r="F2999">
-        <v>0.8625569206445314</v>
+        <v>0.8625569206445312</v>
       </c>
     </row>
     <row r="3000" spans="1:6">
@@ -61719,13 +61719,13 @@
         <v>373</v>
       </c>
       <c r="D3011">
-        <v>4.372426247674793</v>
+        <v>4.372426247674792</v>
       </c>
       <c r="E3011">
         <v>13</v>
       </c>
       <c r="F3011">
-        <v>3.552596326235769</v>
+        <v>3.552596326235768</v>
       </c>
     </row>
     <row r="3012" spans="1:6">
@@ -61799,13 +61799,13 @@
         <v>373</v>
       </c>
       <c r="D3015">
-        <v>4.346938244520134</v>
+        <v>4.346938244520135</v>
       </c>
       <c r="E3015">
         <v>13</v>
       </c>
       <c r="F3015">
-        <v>3.531887323672608</v>
+        <v>3.531887323672609</v>
       </c>
     </row>
     <row r="3016" spans="1:6">
@@ -61819,13 +61819,13 @@
         <v>373</v>
       </c>
       <c r="D3016">
-        <v>3.698172389</v>
+        <v>3.698172389000001</v>
       </c>
       <c r="E3016">
         <v>13</v>
       </c>
       <c r="F3016">
-        <v>3.0047650660625</v>
+        <v>3.004765066062501</v>
       </c>
     </row>
     <row r="3017" spans="1:6">
@@ -61905,7 +61905,7 @@
         <v>6</v>
       </c>
       <c r="F3020">
-        <v>0.9533865259601402</v>
+        <v>0.9533865259601404</v>
       </c>
     </row>
     <row r="3021" spans="1:6">
@@ -61959,13 +61959,13 @@
         <v>373</v>
       </c>
       <c r="D3023">
-        <v>4.175143368838225</v>
+        <v>4.175143368838224</v>
       </c>
       <c r="E3023">
         <v>16</v>
       </c>
       <c r="F3023">
-        <v>4.175143368838225</v>
+        <v>4.175143368838224</v>
       </c>
     </row>
     <row r="3024" spans="1:6">

--- a/score/country_scores/All.xlsx
+++ b/score/country_scores/All.xlsx
@@ -817,7 +817,7 @@
     <t>Sao Tome and Principe</t>
   </si>
   <si>
-    <t>Saint Martin (Dutch part)</t>
+    <t>Saint Martin (Dutch Part)</t>
   </si>
   <si>
     <t>Small states</t>
@@ -844,7 +844,7 @@
     <t>Saint Lucia</t>
   </si>
   <si>
-    <t>Saint Martin (French part)</t>
+    <t>Saint Martin (French Part)</t>
   </si>
   <si>
     <t>Saint Vincent and the Grenadines</t>
@@ -1012,7 +1012,7 @@
     <t>Other Southern Africa</t>
   </si>
   <si>
-    <t>Reunion</t>
+    <t>Réunion</t>
   </si>
   <si>
     <t>Saint Christopher (St. Kitts) and Nevis</t>
@@ -1093,13 +1093,13 @@
     <t>Strategy</t>
   </si>
   <si>
-    <t>Financing incentives</t>
+    <t>Financing Incentives</t>
   </si>
   <si>
     <t>Startup Environment</t>
   </si>
   <si>
-    <t>Technology adoption</t>
+    <t>Technology Adoption</t>
   </si>
   <si>
     <t>Data Exchange</t>
@@ -1114,13 +1114,13 @@
     <t>Capabilities</t>
   </si>
   <si>
-    <t>Digital public services</t>
+    <t>Digital Public Services</t>
   </si>
   <si>
     <t>Funding and procurement</t>
   </si>
   <si>
-    <t>Connectivity technology</t>
+    <t>Connectivity Technology</t>
   </si>
   <si>
     <t>Innovation Ecosystem</t>
@@ -1132,16 +1132,16 @@
     <t>Digital Literacy Skills</t>
   </si>
   <si>
-    <t>Digital wellbeing</t>
+    <t>Digital Wellbeing</t>
   </si>
   <si>
-    <t>Usage and Ownership</t>
+    <t>Usage and ownership</t>
   </si>
   <si>
     <t>Cybersecurity</t>
   </si>
   <si>
-    <t>Ethical standards</t>
+    <t>Ethical Standards</t>
   </si>
   <si>
     <t>Ambition</t>
@@ -4799,13 +4799,13 @@
         <v>360</v>
       </c>
       <c r="D165">
-        <v>4.059907010200001</v>
+        <v>4.0599070102</v>
       </c>
       <c r="E165">
         <v>5</v>
       </c>
       <c r="F165">
-        <v>2.255503894555556</v>
+        <v>2.255503894555555</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4839,7 +4839,7 @@
         <v>360</v>
       </c>
       <c r="D167">
-        <v>4.591903799442286</v>
+        <v>4.591903799442287</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -5579,13 +5579,13 @@
         <v>360</v>
       </c>
       <c r="D204">
-        <v>4.128431378233333</v>
+        <v>4.128431378233334</v>
       </c>
       <c r="E204">
         <v>5</v>
       </c>
       <c r="F204">
-        <v>2.293572987907407</v>
+        <v>2.293572987907408</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5599,13 +5599,13 @@
         <v>360</v>
       </c>
       <c r="D205">
-        <v>3.756766447933334</v>
+        <v>3.756766447933333</v>
       </c>
       <c r="E205">
         <v>5</v>
       </c>
       <c r="F205">
-        <v>2.087092471074075</v>
+        <v>2.087092471074074</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5799,13 +5799,13 @@
         <v>360</v>
       </c>
       <c r="D215">
-        <v>3.650145078766665</v>
+        <v>3.650145078766667</v>
       </c>
       <c r="E215">
         <v>5</v>
       </c>
       <c r="F215">
-        <v>2.027858377092592</v>
+        <v>2.027858377092593</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6139,13 +6139,13 @@
         <v>360</v>
       </c>
       <c r="D232">
-        <v>4.202736140299999</v>
+        <v>4.2027361403</v>
       </c>
       <c r="E232">
         <v>5</v>
       </c>
       <c r="F232">
-        <v>2.334853411277777</v>
+        <v>2.334853411277778</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6439,13 +6439,13 @@
         <v>360</v>
       </c>
       <c r="D247">
-        <v>3.624717292677833</v>
+        <v>3.624717292677835</v>
       </c>
       <c r="E247">
         <v>6</v>
       </c>
       <c r="F247">
-        <v>2.416478195118556</v>
+        <v>2.416478195118557</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6499,7 +6499,7 @@
         <v>360</v>
       </c>
       <c r="D250">
-        <v>3.898666666666666</v>
+        <v>3.898666666666667</v>
       </c>
       <c r="E250">
         <v>3</v>
@@ -6885,7 +6885,7 @@
         <v>6</v>
       </c>
       <c r="F269">
-        <v>2.453696513003877</v>
+        <v>2.453696513003878</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7025,7 +7025,7 @@
         <v>5</v>
       </c>
       <c r="F276">
-        <v>2.360726382611112</v>
+        <v>2.360726382611111</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7979,7 +7979,7 @@
         <v>360</v>
       </c>
       <c r="D324">
-        <v>2.863699834666667</v>
+        <v>2.863699834666666</v>
       </c>
       <c r="E324">
         <v>5</v>
@@ -8419,7 +8419,7 @@
         <v>360</v>
       </c>
       <c r="D346">
-        <v>2.592147114933333</v>
+        <v>2.592147114933334</v>
       </c>
       <c r="E346">
         <v>5</v>
@@ -8519,13 +8519,13 @@
         <v>360</v>
       </c>
       <c r="D351">
-        <v>3.554757837139592</v>
+        <v>3.55475783713959</v>
       </c>
       <c r="E351">
         <v>6</v>
       </c>
       <c r="F351">
-        <v>2.369838558093061</v>
+        <v>2.36983855809306</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8739,7 +8739,7 @@
         <v>360</v>
       </c>
       <c r="D362">
-        <v>3.959912160231903</v>
+        <v>3.959912160231904</v>
       </c>
       <c r="E362">
         <v>6</v>
@@ -8939,7 +8939,7 @@
         <v>360</v>
       </c>
       <c r="D372">
-        <v>4.179452142666666</v>
+        <v>4.179452142666667</v>
       </c>
       <c r="E372">
         <v>5</v>
@@ -9019,13 +9019,13 @@
         <v>360</v>
       </c>
       <c r="D376">
-        <v>3.303546116733333</v>
+        <v>3.303546116733334</v>
       </c>
       <c r="E376">
         <v>5</v>
       </c>
       <c r="F376">
-        <v>1.835303398185185</v>
+        <v>1.835303398185186</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -9219,7 +9219,7 @@
         <v>360</v>
       </c>
       <c r="D386">
-        <v>3.732427141469989</v>
+        <v>3.73242714146999</v>
       </c>
       <c r="E386">
         <v>6</v>
@@ -9459,7 +9459,7 @@
         <v>360</v>
       </c>
       <c r="D398">
-        <v>3.357944444444445</v>
+        <v>3.357944444444444</v>
       </c>
       <c r="E398">
         <v>3</v>
@@ -9499,7 +9499,7 @@
         <v>360</v>
       </c>
       <c r="D400">
-        <v>5.095066666666667</v>
+        <v>5.095066666666666</v>
       </c>
       <c r="E400">
         <v>5</v>
@@ -9539,7 +9539,7 @@
         <v>360</v>
       </c>
       <c r="D402">
-        <v>3.276481939787431</v>
+        <v>3.276481939787432</v>
       </c>
       <c r="E402">
         <v>4</v>
@@ -10079,7 +10079,7 @@
         <v>360</v>
       </c>
       <c r="D429">
-        <v>3.684944444444445</v>
+        <v>3.684944444444444</v>
       </c>
       <c r="E429">
         <v>3</v>
@@ -10299,7 +10299,7 @@
         <v>360</v>
       </c>
       <c r="D440">
-        <v>3.614417536366666</v>
+        <v>3.614417536366667</v>
       </c>
       <c r="E440">
         <v>5</v>
@@ -11165,7 +11165,7 @@
         <v>5</v>
       </c>
       <c r="F483">
-        <v>1.280944444444444</v>
+        <v>1.280944444444445</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -11199,7 +11199,7 @@
         <v>361</v>
       </c>
       <c r="D485">
-        <v>3.7153</v>
+        <v>3.715300000000001</v>
       </c>
       <c r="E485">
         <v>5</v>
@@ -11499,13 +11499,13 @@
         <v>361</v>
       </c>
       <c r="D500">
-        <v>3.438200000000001</v>
+        <v>3.4382</v>
       </c>
       <c r="E500">
         <v>5</v>
       </c>
       <c r="F500">
-        <v>1.910111111111112</v>
+        <v>1.910111111111111</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -11779,13 +11779,13 @@
         <v>361</v>
       </c>
       <c r="D514">
-        <v>3.343000000000001</v>
+        <v>3.343</v>
       </c>
       <c r="E514">
         <v>5</v>
       </c>
       <c r="F514">
-        <v>1.857222222222223</v>
+        <v>1.857222222222222</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -11879,13 +11879,13 @@
         <v>361</v>
       </c>
       <c r="D519">
-        <v>4.499146285714287</v>
+        <v>4.499146285714286</v>
       </c>
       <c r="E519">
         <v>7</v>
       </c>
       <c r="F519">
-        <v>3.499336000000001</v>
+        <v>3.499336</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -11899,13 +11899,13 @@
         <v>361</v>
       </c>
       <c r="D520">
-        <v>4.043713055555556</v>
+        <v>4.043713055555555</v>
       </c>
       <c r="E520">
         <v>9</v>
       </c>
       <c r="F520">
-        <v>4.043713055555556</v>
+        <v>4.043713055555555</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -12019,13 +12019,13 @@
         <v>361</v>
       </c>
       <c r="D526">
-        <v>3.184251764285715</v>
+        <v>3.184251764285714</v>
       </c>
       <c r="E526">
         <v>7</v>
       </c>
       <c r="F526">
-        <v>2.476640261111112</v>
+        <v>2.476640261111111</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -12139,13 +12139,13 @@
         <v>361</v>
       </c>
       <c r="D532">
-        <v>3.767186037500001</v>
+        <v>3.7671860375</v>
       </c>
       <c r="E532">
         <v>8</v>
       </c>
       <c r="F532">
-        <v>3.348609811111112</v>
+        <v>3.348609811111111</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -12519,7 +12519,7 @@
         <v>361</v>
       </c>
       <c r="D551">
-        <v>2.730799999999999</v>
+        <v>2.7308</v>
       </c>
       <c r="E551">
         <v>5</v>
@@ -12545,7 +12545,7 @@
         <v>4</v>
       </c>
       <c r="F552">
-        <v>1.214555555555555</v>
+        <v>1.214555555555556</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -12719,13 +12719,13 @@
         <v>361</v>
       </c>
       <c r="D561">
-        <v>4.161094937500001</v>
+        <v>4.1610949375</v>
       </c>
       <c r="E561">
         <v>8</v>
       </c>
       <c r="F561">
-        <v>3.698751055555556</v>
+        <v>3.698751055555555</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -12805,7 +12805,7 @@
         <v>4</v>
       </c>
       <c r="F565">
-        <v>0.8857333333333333</v>
+        <v>0.8857333333333334</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -12985,7 +12985,7 @@
         <v>5</v>
       </c>
       <c r="F574">
-        <v>1.118333333333334</v>
+        <v>1.118333333333333</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -13159,7 +13159,7 @@
         <v>361</v>
       </c>
       <c r="D583">
-        <v>3.4627</v>
+        <v>3.462699999999999</v>
       </c>
       <c r="E583">
         <v>5</v>
@@ -13205,7 +13205,7 @@
         <v>4</v>
       </c>
       <c r="F585">
-        <v>1.301955555555555</v>
+        <v>1.301955555555556</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -13319,13 +13319,13 @@
         <v>361</v>
       </c>
       <c r="D591">
-        <v>3.618753833333334</v>
+        <v>3.618753833333333</v>
       </c>
       <c r="E591">
         <v>9</v>
       </c>
       <c r="F591">
-        <v>3.618753833333334</v>
+        <v>3.618753833333333</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -13719,13 +13719,13 @@
         <v>361</v>
       </c>
       <c r="D611">
-        <v>4.666430062500001</v>
+        <v>4.6664300625</v>
       </c>
       <c r="E611">
         <v>8</v>
       </c>
       <c r="F611">
-        <v>4.147937833333334</v>
+        <v>4.147937833333333</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -13785,7 +13785,7 @@
         <v>5</v>
       </c>
       <c r="F614">
-        <v>1.216055555555556</v>
+        <v>1.216055555555555</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -13979,7 +13979,7 @@
         <v>361</v>
       </c>
       <c r="D624">
-        <v>3.767788888888888</v>
+        <v>3.767788888888889</v>
       </c>
       <c r="E624">
         <v>8</v>
@@ -14185,7 +14185,7 @@
         <v>4</v>
       </c>
       <c r="F634">
-        <v>0.7698888888888888</v>
+        <v>0.7698888888888887</v>
       </c>
     </row>
     <row r="635" spans="1:6">
@@ -18779,7 +18779,7 @@
         <v>363</v>
       </c>
       <c r="D864">
-        <v>4.949999999999999</v>
+        <v>4.95</v>
       </c>
       <c r="E864">
         <v>4</v>
@@ -20379,7 +20379,7 @@
         <v>364</v>
       </c>
       <c r="D944">
-        <v>2.014285714285715</v>
+        <v>2.014285714285714</v>
       </c>
       <c r="E944">
         <v>7</v>
@@ -20505,7 +20505,7 @@
         <v>7</v>
       </c>
       <c r="F950">
-        <v>3.63125</v>
+        <v>3.631250000000001</v>
       </c>
     </row>
     <row r="951" spans="1:6">
@@ -20559,13 +20559,13 @@
         <v>364</v>
       </c>
       <c r="D953">
-        <v>5.219687499999999</v>
+        <v>5.2196875</v>
       </c>
       <c r="E953">
         <v>8</v>
       </c>
       <c r="F953">
-        <v>5.219687499999999</v>
+        <v>5.2196875</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -20759,13 +20759,13 @@
         <v>364</v>
       </c>
       <c r="D963">
-        <v>5.440812500000001</v>
+        <v>5.4408125</v>
       </c>
       <c r="E963">
         <v>8</v>
       </c>
       <c r="F963">
-        <v>5.440812500000001</v>
+        <v>5.4408125</v>
       </c>
     </row>
     <row r="964" spans="1:6">
@@ -20919,7 +20919,7 @@
         <v>364</v>
       </c>
       <c r="D971">
-        <v>3.328571428571428</v>
+        <v>3.328571428571429</v>
       </c>
       <c r="E971">
         <v>7</v>
@@ -20959,7 +20959,7 @@
         <v>364</v>
       </c>
       <c r="D973">
-        <v>4.435714285714285</v>
+        <v>4.435714285714286</v>
       </c>
       <c r="E973">
         <v>7</v>
@@ -21019,13 +21019,13 @@
         <v>364</v>
       </c>
       <c r="D976">
-        <v>5.732749999999999</v>
+        <v>5.73275</v>
       </c>
       <c r="E976">
         <v>8</v>
       </c>
       <c r="F976">
-        <v>5.732749999999999</v>
+        <v>5.73275</v>
       </c>
     </row>
     <row r="977" spans="1:6">
@@ -21085,7 +21085,7 @@
         <v>7</v>
       </c>
       <c r="F979">
-        <v>3.262500000000001</v>
+        <v>3.2625</v>
       </c>
     </row>
     <row r="980" spans="1:6">
@@ -21099,7 +21099,7 @@
         <v>364</v>
       </c>
       <c r="D980">
-        <v>3.585714285714285</v>
+        <v>3.585714285714286</v>
       </c>
       <c r="E980">
         <v>7</v>
@@ -21139,7 +21139,7 @@
         <v>364</v>
       </c>
       <c r="D982">
-        <v>1.828571428571428</v>
+        <v>1.828571428571429</v>
       </c>
       <c r="E982">
         <v>7</v>
@@ -21179,13 +21179,13 @@
         <v>364</v>
       </c>
       <c r="D984">
-        <v>5.367624999999999</v>
+        <v>5.367625</v>
       </c>
       <c r="E984">
         <v>8</v>
       </c>
       <c r="F984">
-        <v>5.367624999999999</v>
+        <v>5.367625</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -21239,13 +21239,13 @@
         <v>364</v>
       </c>
       <c r="D987">
-        <v>4.328571428571429</v>
+        <v>4.328571428571428</v>
       </c>
       <c r="E987">
         <v>7</v>
       </c>
       <c r="F987">
-        <v>3.787500000000001</v>
+        <v>3.7875</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -21339,7 +21339,7 @@
         <v>364</v>
       </c>
       <c r="D992">
-        <v>2.935714285714285</v>
+        <v>2.935714285714286</v>
       </c>
       <c r="E992">
         <v>7</v>
@@ -21399,7 +21399,7 @@
         <v>364</v>
       </c>
       <c r="D995">
-        <v>3.735714285714286</v>
+        <v>3.735714285714285</v>
       </c>
       <c r="E995">
         <v>7</v>
@@ -21479,13 +21479,13 @@
         <v>364</v>
       </c>
       <c r="D999">
-        <v>5.007142857142858</v>
+        <v>5.007142857142857</v>
       </c>
       <c r="E999">
         <v>7</v>
       </c>
       <c r="F999">
-        <v>4.381250000000001</v>
+        <v>4.38125</v>
       </c>
     </row>
     <row r="1000" spans="1:6">
@@ -21665,7 +21665,7 @@
         <v>7</v>
       </c>
       <c r="F1008">
-        <v>4.456250000000001</v>
+        <v>4.45625</v>
       </c>
     </row>
     <row r="1009" spans="1:6">
@@ -21719,13 +21719,13 @@
         <v>364</v>
       </c>
       <c r="D1011">
-        <v>4.621428571428571</v>
+        <v>4.621428571428572</v>
       </c>
       <c r="E1011">
         <v>7</v>
       </c>
       <c r="F1011">
-        <v>4.043749999999999</v>
+        <v>4.04375</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -21779,7 +21779,7 @@
         <v>364</v>
       </c>
       <c r="D1014">
-        <v>3.721428571428571</v>
+        <v>3.721428571428572</v>
       </c>
       <c r="E1014">
         <v>7</v>
@@ -22279,7 +22279,7 @@
         <v>364</v>
       </c>
       <c r="D1039">
-        <v>2.185714285714285</v>
+        <v>2.185714285714286</v>
       </c>
       <c r="E1039">
         <v>7</v>
@@ -22619,7 +22619,7 @@
         <v>364</v>
       </c>
       <c r="D1056">
-        <v>5.278571428571428</v>
+        <v>5.278571428571429</v>
       </c>
       <c r="E1056">
         <v>7</v>
@@ -22779,13 +22779,13 @@
         <v>364</v>
       </c>
       <c r="D1064">
-        <v>4.264285714285713</v>
+        <v>4.264285714285714</v>
       </c>
       <c r="E1064">
         <v>7</v>
       </c>
       <c r="F1064">
-        <v>3.731249999999999</v>
+        <v>3.73125</v>
       </c>
     </row>
     <row r="1065" spans="1:6">
@@ -22965,7 +22965,7 @@
         <v>7</v>
       </c>
       <c r="F1073">
-        <v>3.962499999999999</v>
+        <v>3.9625</v>
       </c>
     </row>
     <row r="1074" spans="1:6">
@@ -23005,7 +23005,7 @@
         <v>7</v>
       </c>
       <c r="F1075">
-        <v>2.818750000000001</v>
+        <v>2.81875</v>
       </c>
     </row>
     <row r="1076" spans="1:6">
@@ -23159,13 +23159,13 @@
         <v>364</v>
       </c>
       <c r="D1083">
-        <v>5.128571428571429</v>
+        <v>5.128571428571428</v>
       </c>
       <c r="E1083">
         <v>7</v>
       </c>
       <c r="F1083">
-        <v>4.487500000000001</v>
+        <v>4.4875</v>
       </c>
     </row>
     <row r="1084" spans="1:6">
@@ -23179,13 +23179,13 @@
         <v>364</v>
       </c>
       <c r="D1084">
-        <v>4.335714285714285</v>
+        <v>4.335714285714286</v>
       </c>
       <c r="E1084">
         <v>7</v>
       </c>
       <c r="F1084">
-        <v>3.79375</v>
+        <v>3.793750000000001</v>
       </c>
     </row>
     <row r="1085" spans="1:6">
@@ -23199,7 +23199,7 @@
         <v>364</v>
       </c>
       <c r="D1085">
-        <v>2.492857142857144</v>
+        <v>2.492857142857143</v>
       </c>
       <c r="E1085">
         <v>7</v>
@@ -23479,7 +23479,7 @@
         <v>364</v>
       </c>
       <c r="D1099">
-        <v>3.314285714285715</v>
+        <v>3.314285714285714</v>
       </c>
       <c r="E1099">
         <v>7</v>
@@ -23499,7 +23499,7 @@
         <v>364</v>
       </c>
       <c r="D1100">
-        <v>2.185714285714285</v>
+        <v>2.185714285714286</v>
       </c>
       <c r="E1100">
         <v>7</v>
@@ -23525,7 +23525,7 @@
         <v>7</v>
       </c>
       <c r="F1101">
-        <v>3.225000000000001</v>
+        <v>3.225</v>
       </c>
     </row>
     <row r="1102" spans="1:6">
@@ -31979,13 +31979,13 @@
         <v>368</v>
       </c>
       <c r="D1524">
-        <v>3.672368951150603</v>
+        <v>3.672368951150604</v>
       </c>
       <c r="E1524">
         <v>23</v>
       </c>
       <c r="F1524">
-        <v>3.672368951150603</v>
+        <v>3.672368951150604</v>
       </c>
     </row>
     <row r="1525" spans="1:6">
@@ -31999,13 +31999,13 @@
         <v>368</v>
       </c>
       <c r="D1525">
-        <v>3.259050328297082</v>
+        <v>3.259050328297081</v>
       </c>
       <c r="E1525">
         <v>21</v>
       </c>
       <c r="F1525">
-        <v>2.975654647575597</v>
+        <v>2.975654647575596</v>
       </c>
     </row>
     <row r="1526" spans="1:6">
@@ -32085,7 +32085,7 @@
         <v>6</v>
       </c>
       <c r="F1529">
-        <v>0.3219505309015142</v>
+        <v>0.3219505309015141</v>
       </c>
     </row>
     <row r="1530" spans="1:6">
@@ -32199,13 +32199,13 @@
         <v>368</v>
       </c>
       <c r="D1535">
-        <v>4.138104807173419</v>
+        <v>4.13810480717342</v>
       </c>
       <c r="E1535">
         <v>20</v>
       </c>
       <c r="F1535">
-        <v>3.598352006237755</v>
+        <v>3.598352006237756</v>
       </c>
     </row>
     <row r="1536" spans="1:6">
@@ -32259,13 +32259,13 @@
         <v>368</v>
       </c>
       <c r="D1538">
-        <v>2.752207677024991</v>
+        <v>2.75220767702499</v>
       </c>
       <c r="E1538">
         <v>12</v>
       </c>
       <c r="F1538">
-        <v>1.435934440186952</v>
+        <v>1.435934440186951</v>
       </c>
     </row>
     <row r="1539" spans="1:6">
@@ -32345,7 +32345,7 @@
         <v>19</v>
       </c>
       <c r="F1542">
-        <v>2.636734454982427</v>
+        <v>2.636734454982428</v>
       </c>
     </row>
     <row r="1543" spans="1:6">
@@ -32359,13 +32359,13 @@
         <v>368</v>
       </c>
       <c r="D1543">
-        <v>2.792760243920919</v>
+        <v>2.792760243920918</v>
       </c>
       <c r="E1543">
         <v>16</v>
       </c>
       <c r="F1543">
-        <v>1.942789734901509</v>
+        <v>1.942789734901508</v>
       </c>
     </row>
     <row r="1544" spans="1:6">
@@ -32379,7 +32379,7 @@
         <v>368</v>
       </c>
       <c r="D1544">
-        <v>3.91719601920822</v>
+        <v>3.917196019208219</v>
       </c>
       <c r="E1544">
         <v>22</v>
@@ -32525,7 +32525,7 @@
         <v>6</v>
       </c>
       <c r="F1551">
-        <v>0.6704763593434453</v>
+        <v>0.6704763593434452</v>
       </c>
     </row>
     <row r="1552" spans="1:6">
@@ -32559,13 +32559,13 @@
         <v>368</v>
       </c>
       <c r="D1553">
-        <v>3.05348419760371</v>
+        <v>3.053484197603712</v>
       </c>
       <c r="E1553">
         <v>20</v>
       </c>
       <c r="F1553">
-        <v>2.655203650090183</v>
+        <v>2.655203650090184</v>
       </c>
     </row>
     <row r="1554" spans="1:6">
@@ -32585,7 +32585,7 @@
         <v>22</v>
       </c>
       <c r="F1554">
-        <v>3.455586829163959</v>
+        <v>3.45558682916396</v>
       </c>
     </row>
     <row r="1555" spans="1:6">
@@ -32659,13 +32659,13 @@
         <v>368</v>
       </c>
       <c r="D1558">
-        <v>3.765638644971089</v>
+        <v>3.765638644971088</v>
       </c>
       <c r="E1558">
         <v>22</v>
       </c>
       <c r="F1558">
-        <v>3.60191522562452</v>
+        <v>3.601915225624519</v>
       </c>
     </row>
     <row r="1559" spans="1:6">
@@ -32759,7 +32759,7 @@
         <v>368</v>
       </c>
       <c r="D1563">
-        <v>3.0635602084324</v>
+        <v>3.063560208432401</v>
       </c>
       <c r="E1563">
         <v>18</v>
@@ -32779,7 +32779,7 @@
         <v>368</v>
       </c>
       <c r="D1564">
-        <v>2.875168316191136</v>
+        <v>2.875168316191135</v>
       </c>
       <c r="E1564">
         <v>20</v>
@@ -32805,7 +32805,7 @@
         <v>21</v>
       </c>
       <c r="F1565">
-        <v>2.527763112818964</v>
+        <v>2.527763112818963</v>
       </c>
     </row>
     <row r="1566" spans="1:6">
@@ -32819,13 +32819,13 @@
         <v>368</v>
       </c>
       <c r="D1566">
-        <v>4.198316280742896</v>
+        <v>4.198316280742895</v>
       </c>
       <c r="E1566">
         <v>21</v>
       </c>
       <c r="F1566">
-        <v>3.833245299808731</v>
+        <v>3.83324529980873</v>
       </c>
     </row>
     <row r="1567" spans="1:6">
@@ -33019,13 +33019,13 @@
         <v>368</v>
       </c>
       <c r="D1576">
-        <v>4.004599107049626</v>
+        <v>4.004599107049625</v>
       </c>
       <c r="E1576">
         <v>21</v>
       </c>
       <c r="F1576">
-        <v>3.656373097740961</v>
+        <v>3.656373097740962</v>
       </c>
     </row>
     <row r="1577" spans="1:6">
@@ -33125,7 +33125,7 @@
         <v>11</v>
       </c>
       <c r="F1581">
-        <v>1.403955446493066</v>
+        <v>1.403955446493067</v>
       </c>
     </row>
     <row r="1582" spans="1:6">
@@ -33319,13 +33319,13 @@
         <v>368</v>
       </c>
       <c r="D1591">
-        <v>4.015874020086626</v>
+        <v>4.015874020086627</v>
       </c>
       <c r="E1591">
         <v>23</v>
       </c>
       <c r="F1591">
-        <v>4.015874020086626</v>
+        <v>4.015874020086627</v>
       </c>
     </row>
     <row r="1592" spans="1:6">
@@ -33879,13 +33879,13 @@
         <v>368</v>
       </c>
       <c r="D1619">
-        <v>3.299109711296232</v>
+        <v>3.29910971129623</v>
       </c>
       <c r="E1619">
         <v>21</v>
       </c>
       <c r="F1619">
-        <v>3.012230605966124</v>
+        <v>3.012230605966123</v>
       </c>
     </row>
     <row r="1620" spans="1:6">
@@ -33945,7 +33945,7 @@
         <v>20</v>
       </c>
       <c r="F1622">
-        <v>2.527016646272122</v>
+        <v>2.527016646272121</v>
       </c>
     </row>
     <row r="1623" spans="1:6">
@@ -34019,7 +34019,7 @@
         <v>368</v>
       </c>
       <c r="D1626">
-        <v>2.297370391833333</v>
+        <v>2.297370391833334</v>
       </c>
       <c r="E1626">
         <v>13</v>
@@ -34299,13 +34299,13 @@
         <v>368</v>
       </c>
       <c r="D1640">
-        <v>4.390690167640813</v>
+        <v>4.390690167640812</v>
       </c>
       <c r="E1640">
         <v>23</v>
       </c>
       <c r="F1640">
-        <v>4.390690167640813</v>
+        <v>4.390690167640812</v>
       </c>
     </row>
     <row r="1641" spans="1:6">
@@ -34359,13 +34359,13 @@
         <v>368</v>
       </c>
       <c r="D1643">
-        <v>2.873105053977527</v>
+        <v>2.873105053977528</v>
       </c>
       <c r="E1643">
         <v>18</v>
       </c>
       <c r="F1643">
-        <v>2.248516998765021</v>
+        <v>2.248516998765022</v>
       </c>
     </row>
     <row r="1644" spans="1:6">
@@ -34419,13 +34419,13 @@
         <v>368</v>
       </c>
       <c r="D1646">
-        <v>3.708845866648791</v>
+        <v>3.708845866648792</v>
       </c>
       <c r="E1646">
         <v>22</v>
       </c>
       <c r="F1646">
-        <v>3.547591698533626</v>
+        <v>3.547591698533627</v>
       </c>
     </row>
     <row r="1647" spans="1:6">
@@ -34459,13 +34459,13 @@
         <v>368</v>
       </c>
       <c r="D1648">
-        <v>4.518385776245677</v>
+        <v>4.518385776245678</v>
       </c>
       <c r="E1648">
         <v>23</v>
       </c>
       <c r="F1648">
-        <v>4.518385776245677</v>
+        <v>4.518385776245678</v>
       </c>
     </row>
     <row r="1649" spans="1:6">
@@ -34619,7 +34619,7 @@
         <v>368</v>
       </c>
       <c r="D1656">
-        <v>2.959415595376668</v>
+        <v>2.959415595376667</v>
       </c>
       <c r="E1656">
         <v>21</v>
@@ -34705,7 +34705,7 @@
         <v>17</v>
       </c>
       <c r="F1660">
-        <v>1.484541052624588</v>
+        <v>1.484541052624587</v>
       </c>
     </row>
     <row r="1661" spans="1:6">
@@ -35199,13 +35199,13 @@
         <v>368</v>
       </c>
       <c r="D1685">
-        <v>4.388650496828624</v>
+        <v>4.388650496828623</v>
       </c>
       <c r="E1685">
         <v>23</v>
       </c>
       <c r="F1685">
-        <v>4.388650496828624</v>
+        <v>4.388650496828623</v>
       </c>
     </row>
     <row r="1686" spans="1:6">
@@ -35259,13 +35259,13 @@
         <v>368</v>
       </c>
       <c r="D1688">
-        <v>4.417147103418116</v>
+        <v>4.417147103418117</v>
       </c>
       <c r="E1688">
         <v>21</v>
       </c>
       <c r="F1688">
-        <v>4.033047355294801</v>
+        <v>4.033047355294802</v>
       </c>
     </row>
     <row r="1689" spans="1:6">
@@ -35399,13 +35399,13 @@
         <v>368</v>
       </c>
       <c r="D1695">
-        <v>1.347604767138866</v>
+        <v>1.347604767138865</v>
       </c>
       <c r="E1695">
         <v>8</v>
       </c>
       <c r="F1695">
-        <v>0.4687320929178662</v>
+        <v>0.4687320929178661</v>
       </c>
     </row>
     <row r="1696" spans="1:6">
@@ -35585,7 +35585,7 @@
         <v>21</v>
       </c>
       <c r="F1704">
-        <v>3.895707644435752</v>
+        <v>3.895707644435751</v>
       </c>
     </row>
     <row r="1705" spans="1:6">
@@ -35599,13 +35599,13 @@
         <v>368</v>
       </c>
       <c r="D1705">
-        <v>3.703512120200001</v>
+        <v>3.7035121202</v>
       </c>
       <c r="E1705">
         <v>4</v>
       </c>
       <c r="F1705">
-        <v>0.6440890643826088</v>
+        <v>0.6440890643826087</v>
       </c>
     </row>
     <row r="1706" spans="1:6">
@@ -35885,7 +35885,7 @@
         <v>20</v>
       </c>
       <c r="F1719">
-        <v>2.943147548980477</v>
+        <v>2.943147548980476</v>
       </c>
     </row>
     <row r="1720" spans="1:6">
@@ -36219,7 +36219,7 @@
         <v>368</v>
       </c>
       <c r="D1736">
-        <v>1.891024060158793</v>
+        <v>1.891024060158792</v>
       </c>
       <c r="E1736">
         <v>17</v>
@@ -36239,13 +36239,13 @@
         <v>368</v>
       </c>
       <c r="D1737">
-        <v>2.496933439561207</v>
+        <v>2.496933439561206</v>
       </c>
       <c r="E1737">
         <v>21</v>
       </c>
       <c r="F1737">
-        <v>2.279808792642841</v>
+        <v>2.27980879264284</v>
       </c>
     </row>
     <row r="1738" spans="1:6">
@@ -36259,13 +36259,13 @@
         <v>368</v>
       </c>
       <c r="D1738">
-        <v>4.007345473944432</v>
+        <v>4.007345473944433</v>
       </c>
       <c r="E1738">
         <v>23</v>
       </c>
       <c r="F1738">
-        <v>4.007345473944432</v>
+        <v>4.007345473944433</v>
       </c>
     </row>
     <row r="1739" spans="1:6">
@@ -36299,13 +36299,13 @@
         <v>368</v>
       </c>
       <c r="D1740">
-        <v>2.484574533353639</v>
+        <v>2.484574533353638</v>
       </c>
       <c r="E1740">
         <v>20</v>
       </c>
       <c r="F1740">
-        <v>2.160499594220556</v>
+        <v>2.160499594220555</v>
       </c>
     </row>
     <row r="1741" spans="1:6">
@@ -36339,7 +36339,7 @@
         <v>368</v>
       </c>
       <c r="D1742">
-        <v>1.023256799384284</v>
+        <v>1.023256799384283</v>
       </c>
       <c r="E1742">
         <v>4</v>
@@ -36399,13 +36399,13 @@
         <v>368</v>
       </c>
       <c r="D1745">
-        <v>3.766910586605179</v>
+        <v>3.76691058660518</v>
       </c>
       <c r="E1745">
         <v>23</v>
       </c>
       <c r="F1745">
-        <v>3.766910586605179</v>
+        <v>3.76691058660518</v>
       </c>
     </row>
     <row r="1746" spans="1:6">
@@ -36699,13 +36699,13 @@
         <v>368</v>
       </c>
       <c r="D1760">
-        <v>3.365227045626437</v>
+        <v>3.365227045626438</v>
       </c>
       <c r="E1760">
         <v>23</v>
       </c>
       <c r="F1760">
-        <v>3.365227045626437</v>
+        <v>3.365227045626438</v>
       </c>
     </row>
     <row r="1761" spans="1:6">
@@ -36759,13 +36759,13 @@
         <v>368</v>
       </c>
       <c r="D1763">
-        <v>3.676516246086686</v>
+        <v>3.676516246086687</v>
       </c>
       <c r="E1763">
         <v>23</v>
       </c>
       <c r="F1763">
-        <v>3.676516246086686</v>
+        <v>3.676516246086687</v>
       </c>
     </row>
     <row r="1764" spans="1:6">
@@ -36779,7 +36779,7 @@
         <v>368</v>
       </c>
       <c r="D1764">
-        <v>1.867594293142962</v>
+        <v>1.867594293142961</v>
       </c>
       <c r="E1764">
         <v>16</v>
@@ -36865,7 +36865,7 @@
         <v>17</v>
       </c>
       <c r="F1768">
-        <v>2.165825338547507</v>
+        <v>2.165825338547506</v>
       </c>
     </row>
     <row r="1769" spans="1:6">
@@ -37005,7 +37005,7 @@
         <v>15</v>
       </c>
       <c r="F1775">
-        <v>1.064510559035939</v>
+        <v>1.06451055903594</v>
       </c>
     </row>
     <row r="1776" spans="1:6">
@@ -37139,13 +37139,13 @@
         <v>368</v>
       </c>
       <c r="D1782">
-        <v>4.471560833393261</v>
+        <v>4.471560833393262</v>
       </c>
       <c r="E1782">
         <v>23</v>
       </c>
       <c r="F1782">
-        <v>4.471560833393261</v>
+        <v>4.471560833393262</v>
       </c>
     </row>
     <row r="1783" spans="1:6">
@@ -37399,13 +37399,13 @@
         <v>368</v>
       </c>
       <c r="D1795">
-        <v>2.903547232012864</v>
+        <v>2.903547232012863</v>
       </c>
       <c r="E1795">
         <v>23</v>
       </c>
       <c r="F1795">
-        <v>2.903547232012864</v>
+        <v>2.903547232012863</v>
       </c>
     </row>
     <row r="1796" spans="1:6">
@@ -37439,13 +37439,13 @@
         <v>368</v>
       </c>
       <c r="D1797">
-        <v>2.521173969374277</v>
+        <v>2.521173969374276</v>
       </c>
       <c r="E1797">
         <v>7</v>
       </c>
       <c r="F1797">
-        <v>0.7673138167660842</v>
+        <v>0.7673138167660839</v>
       </c>
     </row>
     <row r="1798" spans="1:6">
@@ -37599,13 +37599,13 @@
         <v>368</v>
       </c>
       <c r="D1805">
-        <v>4.225348305744457</v>
+        <v>4.225348305744456</v>
       </c>
       <c r="E1805">
         <v>23</v>
       </c>
       <c r="F1805">
-        <v>4.225348305744457</v>
+        <v>4.225348305744456</v>
       </c>
     </row>
     <row r="1806" spans="1:6">
@@ -37819,7 +37819,7 @@
         <v>368</v>
       </c>
       <c r="D1816">
-        <v>3.945302831002745</v>
+        <v>3.945302831002744</v>
       </c>
       <c r="E1816">
         <v>20</v>
@@ -37839,7 +37839,7 @@
         <v>368</v>
       </c>
       <c r="D1817">
-        <v>3.030628760042596</v>
+        <v>3.030628760042595</v>
       </c>
       <c r="E1817">
         <v>21</v>
@@ -37905,7 +37905,7 @@
         <v>5</v>
       </c>
       <c r="F1820">
-        <v>0.2281454059279734</v>
+        <v>0.2281454059279735</v>
       </c>
     </row>
     <row r="1821" spans="1:6">
@@ -37999,13 +37999,13 @@
         <v>368</v>
       </c>
       <c r="D1825">
-        <v>1.973575858549796</v>
+        <v>1.973575858549797</v>
       </c>
       <c r="E1825">
         <v>5</v>
       </c>
       <c r="F1825">
-        <v>0.4290382301195209</v>
+        <v>0.429038230119521</v>
       </c>
     </row>
     <row r="1826" spans="1:6">
@@ -38039,13 +38039,13 @@
         <v>368</v>
       </c>
       <c r="D1827">
-        <v>4.395143558286712</v>
+        <v>4.395143558286711</v>
       </c>
       <c r="E1827">
         <v>23</v>
       </c>
       <c r="F1827">
-        <v>4.395143558286712</v>
+        <v>4.395143558286711</v>
       </c>
     </row>
     <row r="1828" spans="1:6">
@@ -38139,13 +38139,13 @@
         <v>368</v>
       </c>
       <c r="D1832">
-        <v>4.215247048650873</v>
+        <v>4.215247048650874</v>
       </c>
       <c r="E1832">
         <v>22</v>
       </c>
       <c r="F1832">
-        <v>4.031975437839966</v>
+        <v>4.031975437839967</v>
       </c>
     </row>
     <row r="1833" spans="1:6">
@@ -38199,7 +38199,7 @@
         <v>368</v>
       </c>
       <c r="D1835">
-        <v>4.173262341506856</v>
+        <v>4.173262341506855</v>
       </c>
       <c r="E1835">
         <v>19</v>
@@ -38279,7 +38279,7 @@
         <v>368</v>
       </c>
       <c r="D1839">
-        <v>1.986661287659454</v>
+        <v>1.986661287659455</v>
       </c>
       <c r="E1839">
         <v>14</v>
@@ -38425,7 +38425,7 @@
         <v>14</v>
       </c>
       <c r="F1846">
-        <v>0.9664099719977428</v>
+        <v>0.9664099719977424</v>
       </c>
     </row>
     <row r="1847" spans="1:6">
@@ -38639,7 +38639,7 @@
         <v>368</v>
       </c>
       <c r="D1857">
-        <v>2.612190737799734</v>
+        <v>2.612190737799733</v>
       </c>
       <c r="E1857">
         <v>20</v>
@@ -38719,13 +38719,13 @@
         <v>368</v>
       </c>
       <c r="D1861">
-        <v>4.753872792096401</v>
+        <v>4.7538727920964</v>
       </c>
       <c r="E1861">
         <v>23</v>
       </c>
       <c r="F1861">
-        <v>4.753872792096401</v>
+        <v>4.7538727920964</v>
       </c>
     </row>
     <row r="1862" spans="1:6">
@@ -38879,7 +38879,7 @@
         <v>368</v>
       </c>
       <c r="D1869">
-        <v>2.712037627700278</v>
+        <v>2.712037627700279</v>
       </c>
       <c r="E1869">
         <v>17</v>
@@ -39099,13 +39099,13 @@
         <v>368</v>
       </c>
       <c r="D1880">
-        <v>3.652675937797478</v>
+        <v>3.652675937797479</v>
       </c>
       <c r="E1880">
         <v>23</v>
       </c>
       <c r="F1880">
-        <v>3.652675937797478</v>
+        <v>3.652675937797479</v>
       </c>
     </row>
     <row r="1881" spans="1:6">
@@ -39119,13 +39119,13 @@
         <v>368</v>
       </c>
       <c r="D1881">
-        <v>3.855604877037942</v>
+        <v>3.855604877037941</v>
       </c>
       <c r="E1881">
         <v>23</v>
       </c>
       <c r="F1881">
-        <v>3.855604877037942</v>
+        <v>3.855604877037941</v>
       </c>
     </row>
     <row r="1882" spans="1:6">
@@ -39199,13 +39199,13 @@
         <v>368</v>
       </c>
       <c r="D1885">
-        <v>2.444969295436952</v>
+        <v>2.444969295436951</v>
       </c>
       <c r="E1885">
         <v>20</v>
       </c>
       <c r="F1885">
-        <v>2.126060256901697</v>
+        <v>2.126060256901696</v>
       </c>
     </row>
     <row r="1886" spans="1:6">
@@ -39419,13 +39419,13 @@
         <v>368</v>
       </c>
       <c r="D1896">
-        <v>3.588525005778522</v>
+        <v>3.58852500577852</v>
       </c>
       <c r="E1896">
         <v>20</v>
       </c>
       <c r="F1896">
-        <v>3.120456526763932</v>
+        <v>3.120456526763931</v>
       </c>
     </row>
     <row r="1897" spans="1:6">
@@ -39465,7 +39465,7 @@
         <v>18</v>
       </c>
       <c r="F1898">
-        <v>2.054329367132808</v>
+        <v>2.054329367132809</v>
       </c>
     </row>
     <row r="1899" spans="1:6">
@@ -39499,7 +39499,7 @@
         <v>368</v>
       </c>
       <c r="D1900">
-        <v>2.710696559434094</v>
+        <v>2.710696559434093</v>
       </c>
       <c r="E1900">
         <v>16</v>
@@ -39545,7 +39545,7 @@
         <v>4</v>
       </c>
       <c r="F1902">
-        <v>0.5916323906434782</v>
+        <v>0.5916323906434783</v>
       </c>
     </row>
     <row r="1903" spans="1:6">
@@ -39585,7 +39585,7 @@
         <v>15</v>
       </c>
       <c r="F1904">
-        <v>2.347755729824895</v>
+        <v>2.347755729824896</v>
       </c>
     </row>
     <row r="1905" spans="1:6">
@@ -39739,13 +39739,13 @@
         <v>368</v>
       </c>
       <c r="D1912">
-        <v>2.65443982623025</v>
+        <v>2.654439826230249</v>
       </c>
       <c r="E1912">
         <v>20</v>
       </c>
       <c r="F1912">
-        <v>2.308208544548044</v>
+        <v>2.308208544548043</v>
       </c>
     </row>
     <row r="1913" spans="1:6">
@@ -39799,13 +39799,13 @@
         <v>369</v>
       </c>
       <c r="D1915">
-        <v>1.734179963866666</v>
+        <v>1.734179963866667</v>
       </c>
       <c r="E1915">
         <v>5</v>
       </c>
       <c r="F1915">
-        <v>0.3769956443188405</v>
+        <v>0.3769956443188406</v>
       </c>
     </row>
     <row r="1916" spans="1:6">
@@ -39845,7 +39845,7 @@
         <v>7</v>
       </c>
       <c r="F1917">
-        <v>0.5599845569060758</v>
+        <v>0.559984556906076</v>
       </c>
     </row>
     <row r="1918" spans="1:6">
@@ -39965,7 +39965,7 @@
         <v>7</v>
       </c>
       <c r="F1923">
-        <v>0.4587831695796108</v>
+        <v>0.4587831695796107</v>
       </c>
     </row>
     <row r="1924" spans="1:6">
@@ -40145,7 +40145,7 @@
         <v>3</v>
       </c>
       <c r="F1932">
-        <v>0.1495482256456522</v>
+        <v>0.1495482256456521</v>
       </c>
     </row>
     <row r="1933" spans="1:6">
@@ -40479,13 +40479,13 @@
         <v>369</v>
       </c>
       <c r="D1949">
-        <v>2.143327237323333</v>
+        <v>2.143327237323334</v>
       </c>
       <c r="E1949">
         <v>5</v>
       </c>
       <c r="F1949">
-        <v>0.465940703765942</v>
+        <v>0.4659407037659421</v>
       </c>
     </row>
     <row r="1950" spans="1:6">
@@ -40539,13 +40539,13 @@
         <v>369</v>
       </c>
       <c r="D1952">
-        <v>2.573924209533334</v>
+        <v>2.573924209533333</v>
       </c>
       <c r="E1952">
         <v>5</v>
       </c>
       <c r="F1952">
-        <v>0.5595487412028987</v>
+        <v>0.5595487412028985</v>
       </c>
     </row>
     <row r="1953" spans="1:6">
@@ -40579,13 +40579,13 @@
         <v>369</v>
       </c>
       <c r="D1954">
-        <v>2.830236074466667</v>
+        <v>2.830236074466666</v>
       </c>
       <c r="E1954">
         <v>5</v>
       </c>
       <c r="F1954">
-        <v>0.6152687118405797</v>
+        <v>0.6152687118405796</v>
       </c>
     </row>
     <row r="1955" spans="1:6">
@@ -40725,7 +40725,7 @@
         <v>5</v>
       </c>
       <c r="F1961">
-        <v>0.314528195097826</v>
+        <v>0.3145281950978261</v>
       </c>
     </row>
     <row r="1962" spans="1:6">
@@ -40859,13 +40859,13 @@
         <v>369</v>
       </c>
       <c r="D1968">
-        <v>1.958757984853334</v>
+        <v>1.958757984853333</v>
       </c>
       <c r="E1968">
         <v>5</v>
       </c>
       <c r="F1968">
-        <v>0.4258169532289856</v>
+        <v>0.4258169532289855</v>
       </c>
     </row>
     <row r="1969" spans="1:6">
@@ -41239,13 +41239,13 @@
         <v>369</v>
       </c>
       <c r="D1987">
-        <v>2.866591053527777</v>
+        <v>2.866591053527778</v>
       </c>
       <c r="E1987">
         <v>6</v>
       </c>
       <c r="F1987">
-        <v>0.7478063617898549</v>
+        <v>0.747806361789855</v>
       </c>
     </row>
     <row r="1988" spans="1:6">
@@ -41279,13 +41279,13 @@
         <v>369</v>
       </c>
       <c r="D1989">
-        <v>2.498214228930874</v>
+        <v>2.498214228930873</v>
       </c>
       <c r="E1989">
         <v>7</v>
       </c>
       <c r="F1989">
-        <v>0.7603260696746138</v>
+        <v>0.7603260696746137</v>
       </c>
     </row>
     <row r="1990" spans="1:6">
@@ -41319,7 +41319,7 @@
         <v>369</v>
       </c>
       <c r="D1991">
-        <v>3.018068456556956</v>
+        <v>3.018068456556955</v>
       </c>
       <c r="E1991">
         <v>7</v>
@@ -41825,7 +41825,7 @@
         <v>5</v>
       </c>
       <c r="F2016">
-        <v>0.423246770265942</v>
+        <v>0.4232467702659419</v>
       </c>
     </row>
     <row r="2017" spans="1:6">
@@ -41885,7 +41885,7 @@
         <v>5</v>
       </c>
       <c r="F2019">
-        <v>0.4344112645007245</v>
+        <v>0.4344112645007246</v>
       </c>
     </row>
     <row r="2020" spans="1:6">
@@ -42305,7 +42305,7 @@
         <v>6</v>
       </c>
       <c r="F2040">
-        <v>0.7476078466275363</v>
+        <v>0.7476078466275361</v>
       </c>
     </row>
     <row r="2041" spans="1:6">
@@ -42345,7 +42345,7 @@
         <v>5</v>
       </c>
       <c r="F2042">
-        <v>0.5075399520913043</v>
+        <v>0.5075399520913044</v>
       </c>
     </row>
     <row r="2043" spans="1:6">
@@ -42625,7 +42625,7 @@
         <v>4</v>
       </c>
       <c r="F2056">
-        <v>0.3939317182608696</v>
+        <v>0.3939317182608695</v>
       </c>
     </row>
     <row r="2057" spans="1:6">
@@ -42985,7 +42985,7 @@
         <v>3</v>
       </c>
       <c r="F2074">
-        <v>0.2035573131961957</v>
+        <v>0.2035573131961956</v>
       </c>
     </row>
     <row r="2075" spans="1:6">
@@ -43005,7 +43005,7 @@
         <v>5</v>
       </c>
       <c r="F2075">
-        <v>0.5458825463043478</v>
+        <v>0.5458825463043477</v>
       </c>
     </row>
     <row r="2076" spans="1:6">
@@ -43499,13 +43499,13 @@
         <v>370</v>
       </c>
       <c r="D2100">
-        <v>4.718880317166668</v>
+        <v>4.718880317166667</v>
       </c>
       <c r="E2100">
         <v>3</v>
       </c>
       <c r="F2100">
-        <v>0.8847900594687501</v>
+        <v>0.88479005946875</v>
       </c>
     </row>
     <row r="2101" spans="1:6">
@@ -47019,7 +47019,7 @@
         <v>371</v>
       </c>
       <c r="D2276">
-        <v>4.608155022299999</v>
+        <v>4.6081550223</v>
       </c>
       <c r="E2276">
         <v>5</v>
@@ -47159,7 +47159,7 @@
         <v>371</v>
       </c>
       <c r="D2283">
-        <v>4.7234228804</v>
+        <v>4.723422880399999</v>
       </c>
       <c r="E2283">
         <v>5</v>
@@ -47279,7 +47279,7 @@
         <v>371</v>
       </c>
       <c r="D2289">
-        <v>4.561234419250001</v>
+        <v>4.56123441925</v>
       </c>
       <c r="E2289">
         <v>4</v>
@@ -47419,7 +47419,7 @@
         <v>371</v>
       </c>
       <c r="D2296">
-        <v>4.114994757250001</v>
+        <v>4.11499475725</v>
       </c>
       <c r="E2296">
         <v>4</v>
@@ -47599,7 +47599,7 @@
         <v>371</v>
       </c>
       <c r="D2305">
-        <v>3.8752191778</v>
+        <v>3.875219177800001</v>
       </c>
       <c r="E2305">
         <v>5</v>
@@ -47739,7 +47739,7 @@
         <v>371</v>
       </c>
       <c r="D2312">
-        <v>5.281147869500001</v>
+        <v>5.2811478695</v>
       </c>
       <c r="E2312">
         <v>4</v>
@@ -48159,13 +48159,13 @@
         <v>371</v>
       </c>
       <c r="D2333">
-        <v>4.4184353436</v>
+        <v>4.418435343600001</v>
       </c>
       <c r="E2333">
         <v>5</v>
       </c>
       <c r="F2333">
-        <v>1.380761044875</v>
+        <v>1.380761044875001</v>
       </c>
     </row>
     <row r="2334" spans="1:6">
@@ -48905,7 +48905,7 @@
         <v>4</v>
       </c>
       <c r="F2370">
-        <v>0.8222015197812501</v>
+        <v>0.82220151978125</v>
       </c>
     </row>
     <row r="2371" spans="1:6">
@@ -49319,7 +49319,7 @@
         <v>371</v>
       </c>
       <c r="D2391">
-        <v>3.920228921500001</v>
+        <v>3.9202289215</v>
       </c>
       <c r="E2391">
         <v>4</v>
@@ -49499,7 +49499,7 @@
         <v>371</v>
       </c>
       <c r="D2400">
-        <v>4.833731851900001</v>
+        <v>4.8337318519</v>
       </c>
       <c r="E2400">
         <v>5</v>
@@ -49639,7 +49639,7 @@
         <v>371</v>
       </c>
       <c r="D2407">
-        <v>5.484471914000001</v>
+        <v>5.484471914</v>
       </c>
       <c r="E2407">
         <v>3</v>
@@ -49699,13 +49699,13 @@
         <v>371</v>
       </c>
       <c r="D2410">
-        <v>4.530327288166667</v>
+        <v>4.530327288166666</v>
       </c>
       <c r="E2410">
         <v>3</v>
       </c>
       <c r="F2410">
-        <v>0.8494363665312501</v>
+        <v>0.8494363665312499</v>
       </c>
     </row>
     <row r="2411" spans="1:6">
@@ -50119,7 +50119,7 @@
         <v>371</v>
       </c>
       <c r="D2431">
-        <v>4.847028326099999</v>
+        <v>4.8470283261</v>
       </c>
       <c r="E2431">
         <v>5</v>
@@ -50259,7 +50259,7 @@
         <v>371</v>
       </c>
       <c r="D2438">
-        <v>5.272954039250001</v>
+        <v>5.27295403925</v>
       </c>
       <c r="E2438">
         <v>4</v>
@@ -50459,7 +50459,7 @@
         <v>371</v>
       </c>
       <c r="D2448">
-        <v>4.824850574600001</v>
+        <v>4.8248505746</v>
       </c>
       <c r="E2448">
         <v>5</v>
@@ -50479,7 +50479,7 @@
         <v>371</v>
       </c>
       <c r="D2449">
-        <v>4.800385627399999</v>
+        <v>4.8003856274</v>
       </c>
       <c r="E2449">
         <v>5</v>
@@ -50659,7 +50659,7 @@
         <v>371</v>
       </c>
       <c r="D2458">
-        <v>4.375182382125001</v>
+        <v>4.375182382125</v>
       </c>
       <c r="E2458">
         <v>4</v>
@@ -50759,7 +50759,7 @@
         <v>371</v>
       </c>
       <c r="D2463">
-        <v>4.707451824250001</v>
+        <v>4.70745182425</v>
       </c>
       <c r="E2463">
         <v>4</v>
@@ -50865,7 +50865,7 @@
         <v>3</v>
       </c>
       <c r="F2468">
-        <v>0.7750633901875</v>
+        <v>0.7750633901875001</v>
       </c>
     </row>
     <row r="2469" spans="1:6">
@@ -51079,13 +51079,13 @@
         <v>372</v>
       </c>
       <c r="D2479">
-        <v>2.773375385033431</v>
+        <v>2.77337538503343</v>
       </c>
       <c r="E2479">
         <v>3</v>
       </c>
       <c r="F2479">
-        <v>0.5200078846937682</v>
+        <v>0.5200078846937681</v>
       </c>
     </row>
     <row r="2480" spans="1:6">
@@ -51225,7 +51225,7 @@
         <v>3</v>
       </c>
       <c r="F2486">
-        <v>0.5195660737268768</v>
+        <v>0.5195660737268767</v>
       </c>
     </row>
     <row r="2487" spans="1:6">
@@ -51285,7 +51285,7 @@
         <v>7</v>
       </c>
       <c r="F2489">
-        <v>1.725329598867277</v>
+        <v>1.725329598867278</v>
       </c>
     </row>
     <row r="2490" spans="1:6">
@@ -51299,13 +51299,13 @@
         <v>372</v>
       </c>
       <c r="D2490">
-        <v>2.829346815615197</v>
+        <v>2.829346815615196</v>
       </c>
       <c r="E2490">
         <v>3</v>
       </c>
       <c r="F2490">
-        <v>0.5305025279278495</v>
+        <v>0.5305025279278494</v>
       </c>
     </row>
     <row r="2491" spans="1:6">
@@ -51879,7 +51879,7 @@
         <v>372</v>
       </c>
       <c r="D2519">
-        <v>3.134238214585428</v>
+        <v>3.134238214585429</v>
       </c>
       <c r="E2519">
         <v>6</v>
@@ -51999,7 +51999,7 @@
         <v>372</v>
       </c>
       <c r="D2525">
-        <v>3.67525325295453</v>
+        <v>3.675253252954531</v>
       </c>
       <c r="E2525">
         <v>4</v>
@@ -52305,7 +52305,7 @@
         <v>3</v>
       </c>
       <c r="F2540">
-        <v>0.6297013095456269</v>
+        <v>0.629701309545627</v>
       </c>
     </row>
     <row r="2541" spans="1:6">
@@ -52359,7 +52359,7 @@
         <v>372</v>
       </c>
       <c r="D2543">
-        <v>4.561035693403419</v>
+        <v>4.56103569340342</v>
       </c>
       <c r="E2543">
         <v>5</v>
@@ -52505,7 +52505,7 @@
         <v>8</v>
       </c>
       <c r="F2550">
-        <v>2.073002927362028</v>
+        <v>2.073002927362029</v>
       </c>
     </row>
     <row r="2551" spans="1:6">
@@ -53239,13 +53239,13 @@
         <v>372</v>
       </c>
       <c r="D2587">
-        <v>3.231009952356786</v>
+        <v>3.231009952356785</v>
       </c>
       <c r="E2587">
         <v>6</v>
       </c>
       <c r="F2587">
-        <v>1.211628732133795</v>
+        <v>1.211628732133794</v>
       </c>
     </row>
     <row r="2588" spans="1:6">
@@ -53685,7 +53685,7 @@
         <v>3</v>
       </c>
       <c r="F2609">
-        <v>0.4225833548726348</v>
+        <v>0.4225833548726347</v>
       </c>
     </row>
     <row r="2610" spans="1:6">
@@ -53719,7 +53719,7 @@
         <v>372</v>
       </c>
       <c r="D2611">
-        <v>3.701075214385314</v>
+        <v>3.701075214385313</v>
       </c>
       <c r="E2611">
         <v>6</v>
@@ -53785,7 +53785,7 @@
         <v>3</v>
       </c>
       <c r="F2614">
-        <v>0.7096788201655209</v>
+        <v>0.709678820165521</v>
       </c>
     </row>
     <row r="2615" spans="1:6">
@@ -54119,7 +54119,7 @@
         <v>372</v>
       </c>
       <c r="D2631">
-        <v>4.071022426828063</v>
+        <v>4.071022426828064</v>
       </c>
       <c r="E2631">
         <v>7</v>
@@ -54319,7 +54319,7 @@
         <v>372</v>
       </c>
       <c r="D2641">
-        <v>4.430412110081658</v>
+        <v>4.430412110081659</v>
       </c>
       <c r="E2641">
         <v>6</v>
@@ -54619,7 +54619,7 @@
         <v>372</v>
       </c>
       <c r="D2656">
-        <v>4.191406299524565</v>
+        <v>4.191406299524564</v>
       </c>
       <c r="E2656">
         <v>4</v>
@@ -54719,13 +54719,13 @@
         <v>372</v>
       </c>
       <c r="D2661">
-        <v>3.909269979660423</v>
+        <v>3.909269979660422</v>
       </c>
       <c r="E2661">
         <v>6</v>
       </c>
       <c r="F2661">
-        <v>1.465976242372659</v>
+        <v>1.465976242372658</v>
       </c>
     </row>
     <row r="2662" spans="1:6">
@@ -54739,13 +54739,13 @@
         <v>372</v>
       </c>
       <c r="D2662">
-        <v>2.920654455502723</v>
+        <v>2.920654455502724</v>
       </c>
       <c r="E2662">
         <v>4</v>
       </c>
       <c r="F2662">
-        <v>0.7301636138756809</v>
+        <v>0.730163613875681</v>
       </c>
     </row>
     <row r="2663" spans="1:6">
@@ -55045,7 +55045,7 @@
         <v>3</v>
       </c>
       <c r="F2677">
-        <v>0.4160312499999999</v>
+        <v>0.41603125</v>
       </c>
     </row>
     <row r="2678" spans="1:6">
@@ -55199,7 +55199,7 @@
         <v>372</v>
       </c>
       <c r="D2685">
-        <v>4.520372593898573</v>
+        <v>4.520372593898574</v>
       </c>
       <c r="E2685">
         <v>8</v>
@@ -55599,13 +55599,13 @@
         <v>372</v>
       </c>
       <c r="D2705">
-        <v>2.528174648503162</v>
+        <v>2.528174648503161</v>
       </c>
       <c r="E2705">
         <v>3</v>
       </c>
       <c r="F2705">
-        <v>0.4740327465943428</v>
+        <v>0.4740327465943427</v>
       </c>
     </row>
     <row r="2706" spans="1:6">
@@ -55965,7 +55965,7 @@
         <v>8</v>
       </c>
       <c r="F2723">
-        <v>0.6765000000000001</v>
+        <v>0.6765</v>
       </c>
     </row>
     <row r="2724" spans="1:6">
@@ -56239,7 +56239,7 @@
         <v>373</v>
       </c>
       <c r="D2737">
-        <v>3.643391478820938</v>
+        <v>3.643391478820937</v>
       </c>
       <c r="E2737">
         <v>13</v>
@@ -56399,7 +56399,7 @@
         <v>373</v>
       </c>
       <c r="D2745">
-        <v>1.787925249614143</v>
+        <v>1.787925249614144</v>
       </c>
       <c r="E2745">
         <v>9</v>
@@ -56539,7 +56539,7 @@
         <v>373</v>
       </c>
       <c r="D2752">
-        <v>2.626756472043869</v>
+        <v>2.626756472043868</v>
       </c>
       <c r="E2752">
         <v>9</v>
@@ -56619,7 +56619,7 @@
         <v>373</v>
       </c>
       <c r="D2756">
-        <v>4.573346404722223</v>
+        <v>4.573346404722222</v>
       </c>
       <c r="E2756">
         <v>9</v>
@@ -56639,7 +56639,7 @@
         <v>373</v>
       </c>
       <c r="D2757">
-        <v>3.456616250504399</v>
+        <v>3.4566162505044</v>
       </c>
       <c r="E2757">
         <v>12</v>
@@ -56685,7 +56685,7 @@
         <v>5</v>
       </c>
       <c r="F2759">
-        <v>0.4554068677148438</v>
+        <v>0.4554068677148437</v>
       </c>
     </row>
     <row r="2760" spans="1:6">
@@ -56719,7 +56719,7 @@
         <v>373</v>
       </c>
       <c r="D2761">
-        <v>3.462801135136817</v>
+        <v>3.462801135136818</v>
       </c>
       <c r="E2761">
         <v>14</v>
@@ -56945,7 +56945,7 @@
         <v>5</v>
       </c>
       <c r="F2772">
-        <v>0.7323690950976562</v>
+        <v>0.7323690950976564</v>
       </c>
     </row>
     <row r="2773" spans="1:6">
@@ -57519,7 +57519,7 @@
         <v>373</v>
       </c>
       <c r="D2801">
-        <v>3.502568675071819</v>
+        <v>3.502568675071818</v>
       </c>
       <c r="E2801">
         <v>12</v>
@@ -58005,7 +58005,7 @@
         <v>10</v>
       </c>
       <c r="F2825">
-        <v>1.546339156060965</v>
+        <v>1.546339156060966</v>
       </c>
     </row>
     <row r="2826" spans="1:6">
@@ -58425,7 +58425,7 @@
         <v>6</v>
       </c>
       <c r="F2846">
-        <v>1.095958333333334</v>
+        <v>1.095958333333333</v>
       </c>
     </row>
     <row r="2847" spans="1:6">
@@ -58439,7 +58439,7 @@
         <v>373</v>
       </c>
       <c r="D2847">
-        <v>2.342333737299095</v>
+        <v>2.342333737299094</v>
       </c>
       <c r="E2847">
         <v>12</v>
@@ -58459,13 +58459,13 @@
         <v>373</v>
       </c>
       <c r="D2848">
-        <v>3.424203267531915</v>
+        <v>3.424203267531916</v>
       </c>
       <c r="E2848">
         <v>16</v>
       </c>
       <c r="F2848">
-        <v>3.424203267531915</v>
+        <v>3.424203267531916</v>
       </c>
     </row>
     <row r="2849" spans="1:6">
@@ -58499,7 +58499,7 @@
         <v>373</v>
       </c>
       <c r="D2850">
-        <v>4.738085373416667</v>
+        <v>4.738085373416666</v>
       </c>
       <c r="E2850">
         <v>6</v>
@@ -58685,7 +58685,7 @@
         <v>6</v>
       </c>
       <c r="F2859">
-        <v>0.9041529607687502</v>
+        <v>0.90415296076875</v>
       </c>
     </row>
     <row r="2860" spans="1:6">
@@ -58719,7 +58719,7 @@
         <v>373</v>
       </c>
       <c r="D2861">
-        <v>2.709821570628153</v>
+        <v>2.709821570628152</v>
       </c>
       <c r="E2861">
         <v>9</v>
@@ -58839,7 +58839,7 @@
         <v>373</v>
       </c>
       <c r="D2867">
-        <v>5.399054828500557</v>
+        <v>5.399054828500556</v>
       </c>
       <c r="E2867">
         <v>3</v>
@@ -58919,13 +58919,13 @@
         <v>373</v>
       </c>
       <c r="D2871">
-        <v>4.375358580260732</v>
+        <v>4.375358580260731</v>
       </c>
       <c r="E2871">
         <v>14</v>
       </c>
       <c r="F2871">
-        <v>3.828438757728141</v>
+        <v>3.82843875772814</v>
       </c>
     </row>
     <row r="2872" spans="1:6">
@@ -59119,7 +59119,7 @@
         <v>373</v>
       </c>
       <c r="D2881">
-        <v>2.619417799067802</v>
+        <v>2.619417799067803</v>
       </c>
       <c r="E2881">
         <v>9</v>
@@ -59319,7 +59319,7 @@
         <v>373</v>
       </c>
       <c r="D2891">
-        <v>5.413930302</v>
+        <v>5.413930302000001</v>
       </c>
       <c r="E2891">
         <v>4</v>
@@ -59799,13 +59799,13 @@
         <v>373</v>
       </c>
       <c r="D2915">
-        <v>3.751410786351984</v>
+        <v>3.751410786351983</v>
       </c>
       <c r="E2915">
         <v>13</v>
       </c>
       <c r="F2915">
-        <v>3.048021263910987</v>
+        <v>3.048021263910986</v>
       </c>
     </row>
     <row r="2916" spans="1:6">
@@ -59865,7 +59865,7 @@
         <v>15</v>
       </c>
       <c r="F2918">
-        <v>3.425179099102867</v>
+        <v>3.425179099102868</v>
       </c>
     </row>
     <row r="2919" spans="1:6">
@@ -60339,7 +60339,7 @@
         <v>373</v>
       </c>
       <c r="D2942">
-        <v>2.974167735801327</v>
+        <v>2.974167735801326</v>
       </c>
       <c r="E2942">
         <v>11</v>
@@ -60439,7 +60439,7 @@
         <v>373</v>
       </c>
       <c r="D2947">
-        <v>3.94035809763867</v>
+        <v>3.940358097638671</v>
       </c>
       <c r="E2947">
         <v>13</v>
@@ -60459,7 +60459,7 @@
         <v>373</v>
       </c>
       <c r="D2948">
-        <v>3.716117279005431</v>
+        <v>3.716117279005432</v>
       </c>
       <c r="E2948">
         <v>13</v>
@@ -60599,13 +60599,13 @@
         <v>373</v>
       </c>
       <c r="D2955">
-        <v>4.576907328161822</v>
+        <v>4.576907328161821</v>
       </c>
       <c r="E2955">
         <v>13</v>
       </c>
       <c r="F2955">
-        <v>3.71873720413148</v>
+        <v>3.718737204131479</v>
       </c>
     </row>
     <row r="2956" spans="1:6">
@@ -60725,7 +60725,7 @@
         <v>5</v>
       </c>
       <c r="F2961">
-        <v>0.890625</v>
+        <v>0.8906249999999999</v>
       </c>
     </row>
     <row r="2962" spans="1:6">
@@ -60879,13 +60879,13 @@
         <v>373</v>
       </c>
       <c r="D2969">
-        <v>4.788296107692968</v>
+        <v>4.788296107692969</v>
       </c>
       <c r="E2969">
         <v>15</v>
       </c>
       <c r="F2969">
-        <v>4.489027600962157</v>
+        <v>4.489027600962158</v>
       </c>
     </row>
     <row r="2970" spans="1:6">
@@ -61085,7 +61085,7 @@
         <v>7</v>
       </c>
       <c r="F2979">
-        <v>0.6453470829225001</v>
+        <v>0.6453470829225</v>
       </c>
     </row>
     <row r="2980" spans="1:6">
@@ -61399,7 +61399,7 @@
         <v>373</v>
       </c>
       <c r="D2995">
-        <v>3.506905467587238</v>
+        <v>3.506905467587239</v>
       </c>
       <c r="E2995">
         <v>14</v>
@@ -61425,7 +61425,7 @@
         <v>5</v>
       </c>
       <c r="F2996">
-        <v>0.8157923160267857</v>
+        <v>0.8157923160267856</v>
       </c>
     </row>
     <row r="2997" spans="1:6">
@@ -61445,7 +61445,7 @@
         <v>8</v>
       </c>
       <c r="F2997">
-        <v>0.9425916976000002</v>
+        <v>0.9425916975999999</v>
       </c>
     </row>
     <row r="2998" spans="1:6">
@@ -61485,7 +61485,7 @@
         <v>5</v>
       </c>
       <c r="F2999">
-        <v>0.8625569206445312</v>
+        <v>0.8625569206445314</v>
       </c>
     </row>
     <row r="3000" spans="1:6">
@@ -61719,13 +61719,13 @@
         <v>373</v>
       </c>
       <c r="D3011">
-        <v>4.372426247674792</v>
+        <v>4.372426247674793</v>
       </c>
       <c r="E3011">
         <v>13</v>
       </c>
       <c r="F3011">
-        <v>3.552596326235768</v>
+        <v>3.552596326235769</v>
       </c>
     </row>
     <row r="3012" spans="1:6">
@@ -61799,13 +61799,13 @@
         <v>373</v>
       </c>
       <c r="D3015">
-        <v>4.346938244520135</v>
+        <v>4.346938244520134</v>
       </c>
       <c r="E3015">
         <v>13</v>
       </c>
       <c r="F3015">
-        <v>3.531887323672609</v>
+        <v>3.531887323672608</v>
       </c>
     </row>
     <row r="3016" spans="1:6">
@@ -61819,13 +61819,13 @@
         <v>373</v>
       </c>
       <c r="D3016">
-        <v>3.698172389000001</v>
+        <v>3.698172389</v>
       </c>
       <c r="E3016">
         <v>13</v>
       </c>
       <c r="F3016">
-        <v>3.004765066062501</v>
+        <v>3.0047650660625</v>
       </c>
     </row>
     <row r="3017" spans="1:6">
@@ -61905,7 +61905,7 @@
         <v>6</v>
       </c>
       <c r="F3020">
-        <v>0.9533865259601404</v>
+        <v>0.9533865259601402</v>
       </c>
     </row>
     <row r="3021" spans="1:6">
@@ -61959,13 +61959,13 @@
         <v>373</v>
       </c>
       <c r="D3023">
-        <v>4.175143368838224</v>
+        <v>4.175143368838225</v>
       </c>
       <c r="E3023">
         <v>16</v>
       </c>
       <c r="F3023">
-        <v>4.175143368838224</v>
+        <v>4.175143368838225</v>
       </c>
     </row>
     <row r="3024" spans="1:6">

--- a/score/country_scores/All.xlsx
+++ b/score/country_scores/All.xlsx
@@ -688,7 +688,7 @@
     <t>Democratic People's Republic of Korea (the)</t>
   </si>
   <si>
-    <t>Kosovo</t>
+    <t>Kosovo (UNSCR 1244)</t>
   </si>
   <si>
     <t>Late-demographic dividend</t>
